--- a/data-raw/OBITOS_CONF_COVID-19_MG.xlsx
+++ b/data-raw/OBITOS_CONF_COVID-19_MG.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,32 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjunior/Local/github/dados-mg/ckan/obitos-confirmados-covid-19/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B6939F1-409E-EF48-A1D0-DD21071C15A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CCABA7-E464-9A48-B3FA-9A3B6FA0F0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Óbitos_COVID-19_MG" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Óbitos_COVID-19_MG'!$A$1:$F$2316</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Óbitos_COVID-19_MG'!$A$1:$F$2430</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6952" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7293" uniqueCount="399">
   <si>
     <t>M</t>
   </si>
@@ -1166,9 +1156,6 @@
     <t>Minas Novas</t>
   </si>
   <si>
-    <t>OUTROS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Montes Claros </t>
   </si>
   <si>
@@ -1196,16 +1183,49 @@
     <t>Rubim</t>
   </si>
   <si>
-    <t>18/07/20020</t>
+    <t>Não Informado</t>
   </si>
   <si>
-    <t>Não Informado</t>
+    <t>Rio Casca</t>
+  </si>
+  <si>
+    <t>Raul Soares</t>
+  </si>
+  <si>
+    <t>Divisópolis</t>
+  </si>
+  <si>
+    <t>Periquito</t>
+  </si>
+  <si>
+    <t>Bugre</t>
+  </si>
+  <si>
+    <t>São João del Rei</t>
+  </si>
+  <si>
+    <t>Abadia dos Dourados</t>
+  </si>
+  <si>
+    <t>Campestre</t>
+  </si>
+  <si>
+    <t>Datas</t>
+  </si>
+  <si>
+    <t>Rio Piracicaba</t>
+  </si>
+  <si>
+    <t>Ilicínea</t>
+  </si>
+  <si>
+    <t>Careaçu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
@@ -1514,7 +1534,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2203,55 +2223,58 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal 14" xfId="2"/>
-    <cellStyle name="Normal 15" xfId="3"/>
-    <cellStyle name="Normal 16" xfId="4"/>
-    <cellStyle name="Normal 17" xfId="5"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 2 2" xfId="7"/>
-    <cellStyle name="Normal 2 2 2" xfId="8"/>
-    <cellStyle name="Normal 2 3" xfId="9"/>
-    <cellStyle name="Normal 2 4" xfId="10"/>
-    <cellStyle name="Normal 2 5" xfId="11"/>
-    <cellStyle name="Normal 2 7" xfId="12"/>
-    <cellStyle name="Normal 2 8" xfId="13"/>
-    <cellStyle name="Normal 20" xfId="14"/>
-    <cellStyle name="Normal 21" xfId="15"/>
-    <cellStyle name="Normal 22" xfId="16"/>
-    <cellStyle name="Normal 23" xfId="17"/>
-    <cellStyle name="Normal 26" xfId="18"/>
-    <cellStyle name="Normal 28" xfId="19"/>
-    <cellStyle name="Normal 29" xfId="20"/>
-    <cellStyle name="Normal 3" xfId="21"/>
-    <cellStyle name="Normal 3 2" xfId="22"/>
-    <cellStyle name="Normal 3 2 2" xfId="23"/>
-    <cellStyle name="Normal 3 3" xfId="24"/>
-    <cellStyle name="Normal 3 4" xfId="25"/>
-    <cellStyle name="Normal 30" xfId="26"/>
-    <cellStyle name="Normal 31" xfId="27"/>
-    <cellStyle name="Normal 34" xfId="28"/>
-    <cellStyle name="Normal 35" xfId="29"/>
-    <cellStyle name="Normal 36" xfId="30"/>
-    <cellStyle name="Normal 37" xfId="31"/>
-    <cellStyle name="Normal 38" xfId="32"/>
-    <cellStyle name="Normal 39" xfId="33"/>
-    <cellStyle name="Normal 40" xfId="34"/>
-    <cellStyle name="Normal 41" xfId="35"/>
-    <cellStyle name="Normal 42" xfId="36"/>
-    <cellStyle name="Normal 44" xfId="37"/>
-    <cellStyle name="Normal 45" xfId="38"/>
-    <cellStyle name="Normal 46" xfId="39"/>
-    <cellStyle name="Normal 47" xfId="40"/>
-    <cellStyle name="Normal 48" xfId="41"/>
-    <cellStyle name="Normal 49" xfId="42"/>
-    <cellStyle name="Normal 5" xfId="43"/>
-    <cellStyle name="Normal 50" xfId="44"/>
-    <cellStyle name="Normal 8" xfId="45"/>
-    <cellStyle name="Normal 9" xfId="46"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 14" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 15" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 16" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 17" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2 4" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 2 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 2 7" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 2 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 20" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 21" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 22" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 23" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 26" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 28" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 29" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 3 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 3 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 30" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 31" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 34" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 35" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 36" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 37" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 38" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 39" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 40" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 41" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 42" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 44" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 45" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 46" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 47" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 48" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 49" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 5" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 50" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 8" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 9" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2523,8 +2546,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2316"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K2430"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -7390,7 +7413,7 @@
         <v>63</v>
       </c>
       <c r="D243" s="13" t="s">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="E243" s="5">
         <v>43964</v>
@@ -37135,7 +37158,7 @@
         <v>48</v>
       </c>
       <c r="D1730" s="35" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E1730" s="44">
         <v>44020</v>
@@ -40295,7 +40318,7 @@
         <v>72</v>
       </c>
       <c r="D1888" s="79" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="E1888" s="87">
         <v>44023</v>
@@ -45762,7 +45785,7 @@
         <v>44030</v>
       </c>
       <c r="F2161" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -45942,7 +45965,7 @@
         <v>44030</v>
       </c>
       <c r="F2170" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -46216,7 +46239,7 @@
         <v>54</v>
       </c>
       <c r="D2184" s="35" t="s">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="E2184" s="44">
         <v>44029</v>
@@ -46236,7 +46259,7 @@
         <v>79</v>
       </c>
       <c r="D2185" s="35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E2185" s="44">
         <v>44032</v>
@@ -46376,7 +46399,7 @@
         <v>0</v>
       </c>
       <c r="D2192" s="35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E2192" s="44">
         <v>44028</v>
@@ -46396,7 +46419,7 @@
         <v>95</v>
       </c>
       <c r="D2193" s="35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E2193" s="44">
         <v>44023</v>
@@ -46682,7 +46705,7 @@
         <v>44033</v>
       </c>
       <c r="F2207" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -46802,7 +46825,7 @@
         <v>44015</v>
       </c>
       <c r="F2213" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -46822,7 +46845,7 @@
         <v>44029</v>
       </c>
       <c r="F2214" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -47002,7 +47025,7 @@
         <v>44027</v>
       </c>
       <c r="F2223" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -47202,7 +47225,7 @@
         <v>44027</v>
       </c>
       <c r="F2233" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -47336,7 +47359,7 @@
         <v>35</v>
       </c>
       <c r="D2240" s="35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E2240" s="44">
         <v>44031</v>
@@ -47422,7 +47445,7 @@
         <v>44032</v>
       </c>
       <c r="F2244" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -47542,7 +47565,7 @@
         <v>44027</v>
       </c>
       <c r="F2250" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -47602,7 +47625,7 @@
         <v>44033</v>
       </c>
       <c r="F2253" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -47616,7 +47639,7 @@
         <v>41</v>
       </c>
       <c r="D2254" s="35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E2254" s="44">
         <v>44033</v>
@@ -47682,7 +47705,7 @@
         <v>44029</v>
       </c>
       <c r="F2257" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -47696,7 +47719,7 @@
         <v>59</v>
       </c>
       <c r="D2258" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E2258" s="44">
         <v>44026</v>
@@ -47856,7 +47879,7 @@
         <v>71</v>
       </c>
       <c r="D2266" s="35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E2266" s="44">
         <v>44026</v>
@@ -47896,7 +47919,7 @@
         <v>67</v>
       </c>
       <c r="D2268" s="35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E2268" s="44">
         <v>44024</v>
@@ -47916,7 +47939,7 @@
         <v>57</v>
       </c>
       <c r="D2269" s="35" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E2269" s="44">
         <v>44028</v>
@@ -47998,8 +48021,8 @@
       <c r="D2273" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="E2273" s="44" t="s">
-        <v>387</v>
+      <c r="E2273" s="44">
+        <v>44030</v>
       </c>
       <c r="F2273" s="35" t="s">
         <v>2</v>
@@ -48556,7 +48579,7 @@
         <v>84</v>
       </c>
       <c r="D2301" s="35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E2301" s="44">
         <v>44030</v>
@@ -48865,9 +48888,2290 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2317" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2317" s="35">
+        <v>2316</v>
+      </c>
+      <c r="B2317" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2317" s="35">
+        <v>73</v>
+      </c>
+      <c r="D2317" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2317" s="44">
+        <v>44027</v>
+      </c>
+      <c r="F2317" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2318" s="35">
+        <v>2317</v>
+      </c>
+      <c r="B2318" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2318" s="35">
+        <v>67</v>
+      </c>
+      <c r="D2318" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2318" s="44">
+        <v>44028</v>
+      </c>
+      <c r="F2318" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2319" s="35">
+        <v>2318</v>
+      </c>
+      <c r="B2319" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2319" s="35">
+        <v>65</v>
+      </c>
+      <c r="D2319" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2319" s="44">
+        <v>44028</v>
+      </c>
+      <c r="F2319" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2320" s="35">
+        <v>2319</v>
+      </c>
+      <c r="B2320" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2320" s="35">
+        <v>69</v>
+      </c>
+      <c r="D2320" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2320" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2320" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2321" s="35">
+        <v>2320</v>
+      </c>
+      <c r="B2321" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2321" s="35">
+        <v>44</v>
+      </c>
+      <c r="D2321" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2321" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2321" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2322" s="35">
+        <v>2321</v>
+      </c>
+      <c r="B2322" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2322" s="35">
+        <v>77</v>
+      </c>
+      <c r="D2322" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2322" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2322" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2323" s="35">
+        <v>2322</v>
+      </c>
+      <c r="B2323" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2323" s="35">
+        <v>78</v>
+      </c>
+      <c r="D2323" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2323" s="44">
+        <v>44031</v>
+      </c>
+      <c r="F2323" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2324" s="35">
+        <v>2323</v>
+      </c>
+      <c r="B2324" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2324" s="35">
+        <v>61</v>
+      </c>
+      <c r="D2324" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2324" s="44">
+        <v>44027</v>
+      </c>
+      <c r="F2324" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2325" s="35">
+        <v>2324</v>
+      </c>
+      <c r="B2325" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2325" s="35">
+        <v>62</v>
+      </c>
+      <c r="D2325" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2325" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2325" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2326" s="35">
+        <v>2325</v>
+      </c>
+      <c r="B2326" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2326" s="35">
+        <v>78</v>
+      </c>
+      <c r="D2326" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2326" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2326" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2327" s="35">
+        <v>2326</v>
+      </c>
+      <c r="B2327" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2327" s="35">
+        <v>80</v>
+      </c>
+      <c r="D2327" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2327" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2327" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2328" s="35">
+        <v>2327</v>
+      </c>
+      <c r="B2328" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2328" s="35">
+        <v>88</v>
+      </c>
+      <c r="D2328" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2328" s="44">
+        <v>44027</v>
+      </c>
+      <c r="F2328" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2329" s="35">
+        <v>2328</v>
+      </c>
+      <c r="B2329" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2329" s="35">
+        <v>56</v>
+      </c>
+      <c r="D2329" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2329" s="44">
+        <v>44030</v>
+      </c>
+      <c r="F2329" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2330" s="35">
+        <v>2329</v>
+      </c>
+      <c r="B2330" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2330" s="35">
+        <v>85</v>
+      </c>
+      <c r="D2330" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2330" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2330" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2331" s="35">
+        <v>2330</v>
+      </c>
+      <c r="B2331" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2331" s="35">
+        <v>71</v>
+      </c>
+      <c r="D2331" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2331" s="44">
+        <v>44020</v>
+      </c>
+      <c r="F2331" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2332" s="35">
+        <v>2331</v>
+      </c>
+      <c r="B2332" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2332" s="35">
+        <v>84</v>
+      </c>
+      <c r="D2332" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2332" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2332" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2333" s="35">
+        <v>2332</v>
+      </c>
+      <c r="B2333" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2333" s="35">
+        <v>78</v>
+      </c>
+      <c r="D2333" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2333" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2333" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2334" s="35">
+        <v>2333</v>
+      </c>
+      <c r="B2334" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2334" s="35">
+        <v>86</v>
+      </c>
+      <c r="D2334" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2334" s="44">
+        <v>44031</v>
+      </c>
+      <c r="F2334" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2335" s="35">
+        <v>2334</v>
+      </c>
+      <c r="B2335" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2335" s="35">
+        <v>102</v>
+      </c>
+      <c r="D2335" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2335" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2335" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2336" s="35">
+        <v>2335</v>
+      </c>
+      <c r="B2336" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2336" s="35">
+        <v>65</v>
+      </c>
+      <c r="D2336" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2336" s="44">
+        <v>44029</v>
+      </c>
+      <c r="F2336" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2337" s="35">
+        <v>2336</v>
+      </c>
+      <c r="B2337" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2337" s="35">
+        <v>78</v>
+      </c>
+      <c r="D2337" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2337" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2337" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2338" s="35">
+        <v>2337</v>
+      </c>
+      <c r="B2338" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2338" s="35">
+        <v>55</v>
+      </c>
+      <c r="D2338" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2338" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2338" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2339" s="35">
+        <v>2338</v>
+      </c>
+      <c r="B2339" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2339" s="35">
+        <v>60</v>
+      </c>
+      <c r="D2339" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2339" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2339" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2340" s="35">
+        <v>2339</v>
+      </c>
+      <c r="B2340" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2340" s="35">
+        <v>88</v>
+      </c>
+      <c r="D2340" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2340" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2340" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2341" s="35">
+        <v>2340</v>
+      </c>
+      <c r="B2341" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2341" s="35">
+        <v>79</v>
+      </c>
+      <c r="D2341" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2341" s="44">
+        <v>44029</v>
+      </c>
+      <c r="F2341" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2342" s="35">
+        <v>2341</v>
+      </c>
+      <c r="B2342" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2342" s="35">
+        <v>58</v>
+      </c>
+      <c r="D2342" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2342" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2342" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2343" s="35">
+        <v>2342</v>
+      </c>
+      <c r="B2343" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2343" s="35">
+        <v>67</v>
+      </c>
+      <c r="D2343" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2343" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2343" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2344" s="35">
+        <v>2343</v>
+      </c>
+      <c r="B2344" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2344" s="35">
+        <v>99</v>
+      </c>
+      <c r="D2344" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2344" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2344" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2345" s="35">
+        <v>2344</v>
+      </c>
+      <c r="B2345" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2345" s="35">
+        <v>71</v>
+      </c>
+      <c r="D2345" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2345" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2345" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2346" s="35">
+        <v>2345</v>
+      </c>
+      <c r="B2346" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2346" s="35">
+        <v>71</v>
+      </c>
+      <c r="D2346" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2346" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2346" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2347" s="35">
+        <v>2346</v>
+      </c>
+      <c r="B2347" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2347" s="35">
+        <v>35</v>
+      </c>
+      <c r="D2347" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2347" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2347" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2348" s="35">
+        <v>2347</v>
+      </c>
+      <c r="B2348" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2348" s="35">
+        <v>87</v>
+      </c>
+      <c r="D2348" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2348" s="44">
+        <v>44029</v>
+      </c>
+      <c r="F2348" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2349" s="35">
+        <v>2348</v>
+      </c>
+      <c r="B2349" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2349" s="35">
+        <v>57</v>
+      </c>
+      <c r="D2349" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2349" s="44">
+        <v>44029</v>
+      </c>
+      <c r="F2349" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2350" s="35">
+        <v>2349</v>
+      </c>
+      <c r="B2350" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2350" s="35">
+        <v>78</v>
+      </c>
+      <c r="D2350" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2350" s="44">
+        <v>44019</v>
+      </c>
+      <c r="F2350" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2351" s="35">
+        <v>2350</v>
+      </c>
+      <c r="B2351" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2351" s="35">
+        <v>81</v>
+      </c>
+      <c r="D2351" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2351" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2351" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2352" s="35">
+        <v>2351</v>
+      </c>
+      <c r="B2352" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2352" s="35">
+        <v>54</v>
+      </c>
+      <c r="D2352" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2352" s="44">
+        <v>44008</v>
+      </c>
+      <c r="F2352" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2353" s="35">
+        <v>2352</v>
+      </c>
+      <c r="B2353" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2353" s="35">
+        <v>46</v>
+      </c>
+      <c r="D2353" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2353" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2353" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2354" s="35">
+        <v>2353</v>
+      </c>
+      <c r="B2354" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2354" s="35">
+        <v>60</v>
+      </c>
+      <c r="D2354" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2354" s="44">
+        <v>44023</v>
+      </c>
+      <c r="F2354" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2355" s="35">
+        <v>2354</v>
+      </c>
+      <c r="B2355" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2355" s="35">
+        <v>83</v>
+      </c>
+      <c r="D2355" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2355" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2355" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2356" s="35">
+        <v>2355</v>
+      </c>
+      <c r="B2356" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2356" s="35">
+        <v>81</v>
+      </c>
+      <c r="D2356" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2356" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2356" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2357" s="35">
+        <v>2356</v>
+      </c>
+      <c r="B2357" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2357" s="35">
+        <v>75</v>
+      </c>
+      <c r="D2357" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2357" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2357" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2358" s="35">
+        <v>2357</v>
+      </c>
+      <c r="B2358" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2358" s="35">
+        <v>75</v>
+      </c>
+      <c r="D2358" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2358" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2358" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2359" s="35">
+        <v>2358</v>
+      </c>
+      <c r="B2359" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2359" s="35">
+        <v>82</v>
+      </c>
+      <c r="D2359" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2359" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2359" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2360" s="35">
+        <v>2359</v>
+      </c>
+      <c r="B2360" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2360" s="35">
+        <v>80</v>
+      </c>
+      <c r="D2360" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2360" s="44">
+        <v>44031</v>
+      </c>
+      <c r="F2360" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2361" s="35">
+        <v>2360</v>
+      </c>
+      <c r="B2361" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2361" s="35">
+        <v>50</v>
+      </c>
+      <c r="D2361" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2361" s="44">
+        <v>44031</v>
+      </c>
+      <c r="F2361" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2362" s="35">
+        <v>2361</v>
+      </c>
+      <c r="B2362" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2362" s="35">
+        <v>49</v>
+      </c>
+      <c r="D2362" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2362" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2362" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2363" s="35">
+        <v>2362</v>
+      </c>
+      <c r="B2363" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2363" s="35">
+        <v>91</v>
+      </c>
+      <c r="D2363" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2363" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2363" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2364" s="35">
+        <v>2363</v>
+      </c>
+      <c r="B2364" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2364" s="35">
+        <v>56</v>
+      </c>
+      <c r="D2364" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2364" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2364" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2365" s="35">
+        <v>2364</v>
+      </c>
+      <c r="B2365" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2365" s="35">
+        <v>65</v>
+      </c>
+      <c r="D2365" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2365" s="44">
+        <v>44031</v>
+      </c>
+      <c r="F2365" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2366" s="35">
+        <v>2365</v>
+      </c>
+      <c r="B2366" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2366" s="35">
+        <v>54</v>
+      </c>
+      <c r="D2366" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2366" s="44">
+        <v>44030</v>
+      </c>
+      <c r="F2366" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2367" s="35">
+        <v>2366</v>
+      </c>
+      <c r="B2367" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2367" s="35">
+        <v>73</v>
+      </c>
+      <c r="D2367" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2367" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2367" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2368" s="35">
+        <v>2367</v>
+      </c>
+      <c r="B2368" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2368" s="35">
+        <v>89</v>
+      </c>
+      <c r="D2368" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2368" s="44">
+        <v>43984</v>
+      </c>
+      <c r="F2368" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2369" s="35">
+        <v>2368</v>
+      </c>
+      <c r="B2369" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2369" s="35">
+        <v>53</v>
+      </c>
+      <c r="D2369" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2369" s="44">
+        <v>44021</v>
+      </c>
+      <c r="F2369" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2370" s="35">
+        <v>2369</v>
+      </c>
+      <c r="B2370" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2370" s="35">
+        <v>89</v>
+      </c>
+      <c r="D2370" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2370" s="44">
+        <v>44030</v>
+      </c>
+      <c r="F2370" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2371" s="35">
+        <v>2370</v>
+      </c>
+      <c r="B2371" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2371" s="35">
+        <v>57</v>
+      </c>
+      <c r="D2371" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2371" s="44">
+        <v>44030</v>
+      </c>
+      <c r="F2371" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2372" s="35">
+        <v>2371</v>
+      </c>
+      <c r="B2372" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2372" s="35">
+        <v>54</v>
+      </c>
+      <c r="D2372" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2372" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2372" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2373" s="35">
+        <v>2372</v>
+      </c>
+      <c r="B2373" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2373" s="35">
+        <v>63</v>
+      </c>
+      <c r="D2373" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2373" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2373" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2374" s="35">
+        <v>2373</v>
+      </c>
+      <c r="B2374" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2374" s="35">
+        <v>90</v>
+      </c>
+      <c r="D2374" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2374" s="44">
+        <v>44020</v>
+      </c>
+      <c r="F2374" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2375" s="35">
+        <v>2374</v>
+      </c>
+      <c r="B2375" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2375" s="35">
+        <v>47</v>
+      </c>
+      <c r="D2375" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2375" s="44">
+        <v>44020</v>
+      </c>
+      <c r="F2375" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2376" s="35">
+        <v>2375</v>
+      </c>
+      <c r="B2376" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2376" s="35">
+        <v>55</v>
+      </c>
+      <c r="D2376" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2376" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2376" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2377" s="35">
+        <v>2376</v>
+      </c>
+      <c r="B2377" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2377" s="230">
+        <v>55</v>
+      </c>
+      <c r="D2377" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2377" s="44">
+        <v>44030</v>
+      </c>
+      <c r="F2377" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2378" s="35">
+        <v>2377</v>
+      </c>
+      <c r="B2378" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2378" s="230">
+        <v>69</v>
+      </c>
+      <c r="D2378" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2378" s="44">
+        <v>44018</v>
+      </c>
+      <c r="F2378" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2379" s="35">
+        <v>2378</v>
+      </c>
+      <c r="B2379" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2379" s="230">
+        <v>71</v>
+      </c>
+      <c r="D2379" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2379" s="44">
+        <v>44030</v>
+      </c>
+      <c r="F2379" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2380" s="35">
+        <v>2379</v>
+      </c>
+      <c r="B2380" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2380" s="230">
+        <v>90</v>
+      </c>
+      <c r="D2380" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2380" s="44">
+        <v>44020</v>
+      </c>
+      <c r="F2380" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2381" s="35">
+        <v>2380</v>
+      </c>
+      <c r="B2381" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2381" s="230">
+        <v>68</v>
+      </c>
+      <c r="D2381" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2381" s="44">
+        <v>44029</v>
+      </c>
+      <c r="F2381" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2382" s="35">
+        <v>2381</v>
+      </c>
+      <c r="B2382" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2382" s="230">
+        <v>58</v>
+      </c>
+      <c r="D2382" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2382" s="44">
+        <v>44031</v>
+      </c>
+      <c r="F2382" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2383" s="35">
+        <v>2382</v>
+      </c>
+      <c r="B2383" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2383" s="230">
+        <v>84</v>
+      </c>
+      <c r="D2383" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2383" s="44">
+        <v>44018</v>
+      </c>
+      <c r="F2383" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2384" s="35">
+        <v>2383</v>
+      </c>
+      <c r="B2384" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2384" s="230">
+        <v>70</v>
+      </c>
+      <c r="D2384" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2384" s="44">
+        <v>44023</v>
+      </c>
+      <c r="F2384" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2385" s="35">
+        <v>2384</v>
+      </c>
+      <c r="B2385" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2385" s="230">
+        <v>78</v>
+      </c>
+      <c r="D2385" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2385" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2385" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2386" s="35">
+        <v>2385</v>
+      </c>
+      <c r="B2386" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2386" s="230">
+        <v>72</v>
+      </c>
+      <c r="D2386" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2386" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2386" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2387" s="35">
+        <v>2386</v>
+      </c>
+      <c r="B2387" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2387" s="230">
+        <v>91</v>
+      </c>
+      <c r="D2387" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2387" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2387" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2388" s="35">
+        <v>2387</v>
+      </c>
+      <c r="B2388" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2388" s="230">
+        <v>99</v>
+      </c>
+      <c r="D2388" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2388" s="44">
+        <v>44022</v>
+      </c>
+      <c r="F2388" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2389" s="35">
+        <v>2388</v>
+      </c>
+      <c r="B2389" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2389" s="230">
+        <v>59</v>
+      </c>
+      <c r="D2389" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2389" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2389" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2390" s="35">
+        <v>2389</v>
+      </c>
+      <c r="B2390" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2390" s="230">
+        <v>71</v>
+      </c>
+      <c r="D2390" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2390" s="44">
+        <v>44020</v>
+      </c>
+      <c r="F2390" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2391" s="35">
+        <v>2390</v>
+      </c>
+      <c r="B2391" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2391" s="230">
+        <v>54</v>
+      </c>
+      <c r="D2391" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2391" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2391" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2392" s="35">
+        <v>2391</v>
+      </c>
+      <c r="B2392" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2392" s="230">
+        <v>85</v>
+      </c>
+      <c r="D2392" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2392" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2392" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2393" s="35">
+        <v>2392</v>
+      </c>
+      <c r="B2393" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2393" s="230">
+        <v>92</v>
+      </c>
+      <c r="D2393" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2393" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2393" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2394" s="35">
+        <v>2393</v>
+      </c>
+      <c r="B2394" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2394" s="230">
+        <v>84</v>
+      </c>
+      <c r="D2394" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2394" s="44">
+        <v>44031</v>
+      </c>
+      <c r="F2394" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2395" s="35">
+        <v>2394</v>
+      </c>
+      <c r="B2395" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2395" s="230">
+        <v>96</v>
+      </c>
+      <c r="D2395" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2395" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2395" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2396" s="35">
+        <v>2395</v>
+      </c>
+      <c r="B2396" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2396" s="230">
+        <v>94</v>
+      </c>
+      <c r="D2396" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2396" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2396" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2397" s="35">
+        <v>2396</v>
+      </c>
+      <c r="B2397" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2397" s="230">
+        <v>72</v>
+      </c>
+      <c r="D2397" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2397" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2397" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2398" s="35">
+        <v>2397</v>
+      </c>
+      <c r="B2398" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2398" s="230">
+        <v>25</v>
+      </c>
+      <c r="D2398" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2398" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2398" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2399" s="35">
+        <v>2398</v>
+      </c>
+      <c r="B2399" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2399" s="230">
+        <v>73</v>
+      </c>
+      <c r="D2399" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2399" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2399" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2400" s="35">
+        <v>2399</v>
+      </c>
+      <c r="B2400" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2400" s="230">
+        <v>80</v>
+      </c>
+      <c r="D2400" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2400" s="44">
+        <v>44030</v>
+      </c>
+      <c r="F2400" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2401" s="35">
+        <v>2400</v>
+      </c>
+      <c r="B2401" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2401" s="230">
+        <v>78</v>
+      </c>
+      <c r="D2401" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2401" s="44">
+        <v>44029</v>
+      </c>
+      <c r="F2401" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2402" s="35">
+        <v>2401</v>
+      </c>
+      <c r="B2402" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2402" s="230">
+        <v>68</v>
+      </c>
+      <c r="D2402" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2402" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2402" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2403" s="35">
+        <v>2402</v>
+      </c>
+      <c r="B2403" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2403" s="230">
+        <v>91</v>
+      </c>
+      <c r="D2403" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2403" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2403" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2404" s="35">
+        <v>2403</v>
+      </c>
+      <c r="B2404" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2404" s="230">
+        <v>90</v>
+      </c>
+      <c r="D2404" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2404" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2404" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2405" s="35">
+        <v>2404</v>
+      </c>
+      <c r="B2405" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2405" s="230">
+        <v>76</v>
+      </c>
+      <c r="D2405" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2405" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2405" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2406" s="35">
+        <v>2405</v>
+      </c>
+      <c r="B2406" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2406" s="35">
+        <v>51</v>
+      </c>
+      <c r="D2406" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2406" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2406" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2407" s="35">
+        <v>2406</v>
+      </c>
+      <c r="B2407" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2407" s="35">
+        <v>65</v>
+      </c>
+      <c r="D2407" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2407" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2407" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2408" s="35">
+        <v>2407</v>
+      </c>
+      <c r="B2408" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2408" s="35">
+        <v>70</v>
+      </c>
+      <c r="D2408" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2408" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2408" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2409" s="35">
+        <v>2408</v>
+      </c>
+      <c r="B2409" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2409" s="35">
+        <v>61</v>
+      </c>
+      <c r="D2409" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2409" s="44">
+        <v>44021</v>
+      </c>
+      <c r="F2409" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2410" s="35">
+        <v>2409</v>
+      </c>
+      <c r="B2410" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2410" s="35">
+        <v>68</v>
+      </c>
+      <c r="D2410" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2410" s="44">
+        <v>44015</v>
+      </c>
+      <c r="F2410" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2411" s="35">
+        <v>2410</v>
+      </c>
+      <c r="B2411" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2411" s="35">
+        <v>82</v>
+      </c>
+      <c r="D2411" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2411" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2411" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2412" s="35">
+        <v>2411</v>
+      </c>
+      <c r="B2412" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2412" s="35">
+        <v>55</v>
+      </c>
+      <c r="D2412" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2412" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2412" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2413" s="35">
+        <v>2412</v>
+      </c>
+      <c r="B2413" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2413" s="35">
+        <v>89</v>
+      </c>
+      <c r="D2413" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2413" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2413" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2414" s="35">
+        <v>2413</v>
+      </c>
+      <c r="B2414" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2414" s="35">
+        <v>35</v>
+      </c>
+      <c r="D2414" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2414" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2414" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2415" s="35">
+        <v>2414</v>
+      </c>
+      <c r="B2415" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2415" s="35">
+        <v>38</v>
+      </c>
+      <c r="D2415" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="E2415" s="44">
+        <v>44020</v>
+      </c>
+      <c r="F2415" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2416" s="35">
+        <v>2415</v>
+      </c>
+      <c r="B2416" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2416" s="35">
+        <v>55</v>
+      </c>
+      <c r="D2416" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2416" s="44">
+        <v>44025</v>
+      </c>
+      <c r="F2416" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2417" s="35">
+        <v>2416</v>
+      </c>
+      <c r="B2417" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2417" s="35">
+        <v>53</v>
+      </c>
+      <c r="D2417" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2417" s="44">
+        <v>44022</v>
+      </c>
+      <c r="F2417" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2418" s="35">
+        <v>2417</v>
+      </c>
+      <c r="B2418" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2418" s="35">
+        <v>97</v>
+      </c>
+      <c r="D2418" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2418" s="44">
+        <v>44024</v>
+      </c>
+      <c r="F2418" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2419" s="35">
+        <v>2418</v>
+      </c>
+      <c r="B2419" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2419" s="35">
+        <v>85</v>
+      </c>
+      <c r="D2419" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2419" s="44">
+        <v>44024</v>
+      </c>
+      <c r="F2419" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2420" s="35">
+        <v>2419</v>
+      </c>
+      <c r="B2420" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2420" s="35">
+        <v>58</v>
+      </c>
+      <c r="D2420" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2420" s="44">
+        <v>44025</v>
+      </c>
+      <c r="F2420" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2421" s="35">
+        <v>2420</v>
+      </c>
+      <c r="B2421" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2421" s="35">
+        <v>60</v>
+      </c>
+      <c r="D2421" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2421" s="44">
+        <v>44025</v>
+      </c>
+      <c r="F2421" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2422" s="35">
+        <v>2421</v>
+      </c>
+      <c r="B2422" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2422" s="35">
+        <v>70</v>
+      </c>
+      <c r="D2422" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2422" s="44">
+        <v>44025</v>
+      </c>
+      <c r="F2422" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2423" s="35">
+        <v>2422</v>
+      </c>
+      <c r="B2423" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2423" s="35">
+        <v>86</v>
+      </c>
+      <c r="D2423" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2423" s="44">
+        <v>44026</v>
+      </c>
+      <c r="F2423" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2424" s="35">
+        <v>2423</v>
+      </c>
+      <c r="B2424" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2424" s="35">
+        <v>80</v>
+      </c>
+      <c r="D2424" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2424" s="44">
+        <v>44026</v>
+      </c>
+      <c r="F2424" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2425" s="35">
+        <v>2424</v>
+      </c>
+      <c r="B2425" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2425" s="35">
+        <v>62</v>
+      </c>
+      <c r="D2425" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2425" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2425" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2426" s="35">
+        <v>2425</v>
+      </c>
+      <c r="B2426" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2426" s="35">
+        <v>73</v>
+      </c>
+      <c r="D2426" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2426" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2426" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2427" s="35">
+        <v>2426</v>
+      </c>
+      <c r="B2427" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2427" s="35">
+        <v>43</v>
+      </c>
+      <c r="D2427" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2427" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2427" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2428" s="35">
+        <v>2427</v>
+      </c>
+      <c r="B2428" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2428" s="35">
+        <v>70</v>
+      </c>
+      <c r="D2428" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2428" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2428" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2429" s="35">
+        <v>2428</v>
+      </c>
+      <c r="B2429" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2429" s="35">
+        <v>99</v>
+      </c>
+      <c r="D2429" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2429" s="44">
+        <v>44031</v>
+      </c>
+      <c r="F2429" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2430" s="35">
+        <v>2429</v>
+      </c>
+      <c r="B2430" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2430" s="35">
+        <v>94</v>
+      </c>
+      <c r="D2430" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2430" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2430" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F2430" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data-raw/OBITOS_CONF_COVID-19_MG.xlsx
+++ b/data-raw/OBITOS_CONF_COVID-19_MG.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjunior/Local/github/dados-mg/ckan/obitos-confirmados-covid-19/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CCABA7-E464-9A48-B3FA-9A3B6FA0F0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E5E3091-F9C0-724D-8DEA-359FD0009247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Óbitos_COVID-19_MG" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Óbitos_COVID-19_MG'!$A$1:$F$2430</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7293" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7389" uniqueCount="401">
   <si>
     <t>M</t>
   </si>
@@ -1221,11 +1229,17 @@
   <si>
     <t>Careaçu</t>
   </si>
+  <si>
+    <t>Comendador Gomes</t>
+  </si>
+  <si>
+    <t>Iraí de Minas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
@@ -2229,52 +2243,52 @@
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 14" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 15" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 16" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 17" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 2 4" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 2 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal 2 7" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal 2 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal 20" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normal 21" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Normal 22" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normal 23" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Normal 26" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 28" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Normal 29" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Normal 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Normal 3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Normal 3 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Normal 3 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Normal 30" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Normal 31" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Normal 34" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Normal 35" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Normal 36" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Normal 37" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Normal 38" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Normal 39" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Normal 40" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Normal 41" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Normal 42" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Normal 44" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Normal 45" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Normal 46" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Normal 47" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Normal 48" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Normal 49" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Normal 5" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Normal 50" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Normal 8" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Normal 9" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal 14" xfId="2"/>
+    <cellStyle name="Normal 15" xfId="3"/>
+    <cellStyle name="Normal 16" xfId="4"/>
+    <cellStyle name="Normal 17" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="6"/>
+    <cellStyle name="Normal 2 2" xfId="7"/>
+    <cellStyle name="Normal 2 2 2" xfId="8"/>
+    <cellStyle name="Normal 2 3" xfId="9"/>
+    <cellStyle name="Normal 2 4" xfId="10"/>
+    <cellStyle name="Normal 2 5" xfId="11"/>
+    <cellStyle name="Normal 2 7" xfId="12"/>
+    <cellStyle name="Normal 2 8" xfId="13"/>
+    <cellStyle name="Normal 20" xfId="14"/>
+    <cellStyle name="Normal 21" xfId="15"/>
+    <cellStyle name="Normal 22" xfId="16"/>
+    <cellStyle name="Normal 23" xfId="17"/>
+    <cellStyle name="Normal 26" xfId="18"/>
+    <cellStyle name="Normal 28" xfId="19"/>
+    <cellStyle name="Normal 29" xfId="20"/>
+    <cellStyle name="Normal 3" xfId="21"/>
+    <cellStyle name="Normal 3 2" xfId="22"/>
+    <cellStyle name="Normal 3 2 2" xfId="23"/>
+    <cellStyle name="Normal 3 3" xfId="24"/>
+    <cellStyle name="Normal 3 4" xfId="25"/>
+    <cellStyle name="Normal 30" xfId="26"/>
+    <cellStyle name="Normal 31" xfId="27"/>
+    <cellStyle name="Normal 34" xfId="28"/>
+    <cellStyle name="Normal 35" xfId="29"/>
+    <cellStyle name="Normal 36" xfId="30"/>
+    <cellStyle name="Normal 37" xfId="31"/>
+    <cellStyle name="Normal 38" xfId="32"/>
+    <cellStyle name="Normal 39" xfId="33"/>
+    <cellStyle name="Normal 40" xfId="34"/>
+    <cellStyle name="Normal 41" xfId="35"/>
+    <cellStyle name="Normal 42" xfId="36"/>
+    <cellStyle name="Normal 44" xfId="37"/>
+    <cellStyle name="Normal 45" xfId="38"/>
+    <cellStyle name="Normal 46" xfId="39"/>
+    <cellStyle name="Normal 47" xfId="40"/>
+    <cellStyle name="Normal 48" xfId="41"/>
+    <cellStyle name="Normal 49" xfId="42"/>
+    <cellStyle name="Normal 5" xfId="43"/>
+    <cellStyle name="Normal 50" xfId="44"/>
+    <cellStyle name="Normal 8" xfId="45"/>
+    <cellStyle name="Normal 9" xfId="46"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2546,10 +2560,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2430"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2462"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2443" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2463" sqref="A2463:IV2466"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -51168,10 +51184,649 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2431" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2431" s="35">
+        <v>2430</v>
+      </c>
+      <c r="B2431" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2431" s="35">
+        <v>73</v>
+      </c>
+      <c r="D2431" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2431" s="44">
+        <v>44031</v>
+      </c>
+      <c r="F2431" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2432" s="35">
+        <v>2431</v>
+      </c>
+      <c r="B2432" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2432" s="35">
+        <v>58</v>
+      </c>
+      <c r="D2432" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2432" s="44">
+        <v>44023</v>
+      </c>
+      <c r="F2432" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2433" s="35">
+        <v>2432</v>
+      </c>
+      <c r="B2433" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2433" s="35">
+        <v>81</v>
+      </c>
+      <c r="D2433" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2433" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2433" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2434" s="35">
+        <v>2433</v>
+      </c>
+      <c r="B2434" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2434" s="35">
+        <v>92</v>
+      </c>
+      <c r="D2434" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2434" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2434" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2435" s="35">
+        <v>2434</v>
+      </c>
+      <c r="B2435" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2435" s="35">
+        <v>68</v>
+      </c>
+      <c r="D2435" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2435" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2435" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2436" s="35">
+        <v>2435</v>
+      </c>
+      <c r="B2436" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2436" s="35">
+        <v>64</v>
+      </c>
+      <c r="D2436" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2436" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2436" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2437" s="35">
+        <v>2436</v>
+      </c>
+      <c r="B2437" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2437" s="35">
+        <v>68</v>
+      </c>
+      <c r="D2437" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2437" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2437" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2438" s="35">
+        <v>2437</v>
+      </c>
+      <c r="B2438" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2438" s="35">
+        <v>81</v>
+      </c>
+      <c r="D2438" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2438" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2438" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2439" s="35">
+        <v>2438</v>
+      </c>
+      <c r="B2439" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2439" s="35">
+        <v>75</v>
+      </c>
+      <c r="D2439" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2439" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2439" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2440" s="35">
+        <v>2439</v>
+      </c>
+      <c r="B2440" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2440" s="35">
+        <v>78</v>
+      </c>
+      <c r="D2440" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2440" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2440" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2441" s="35">
+        <v>2440</v>
+      </c>
+      <c r="B2441" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2441" s="35">
+        <v>81</v>
+      </c>
+      <c r="D2441" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2441" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2441" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2442" s="35">
+        <v>2441</v>
+      </c>
+      <c r="B2442" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2442" s="35">
+        <v>50</v>
+      </c>
+      <c r="D2442" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2442" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2442" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2443" s="35">
+        <v>2442</v>
+      </c>
+      <c r="B2443" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2443" s="35">
+        <v>47</v>
+      </c>
+      <c r="D2443" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2443" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2443" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2444" s="35">
+        <v>2443</v>
+      </c>
+      <c r="B2444" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2444" s="35">
+        <v>66</v>
+      </c>
+      <c r="D2444" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2444" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2444" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2445" s="35">
+        <v>2444</v>
+      </c>
+      <c r="B2445" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2445" s="35">
+        <v>76</v>
+      </c>
+      <c r="D2445" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2445" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2445" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2446" s="35">
+        <v>2445</v>
+      </c>
+      <c r="B2446" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2446" s="35">
+        <v>74</v>
+      </c>
+      <c r="D2446" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2446" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2446" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2447" s="35">
+        <v>2446</v>
+      </c>
+      <c r="B2447" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2447" s="35">
+        <v>41</v>
+      </c>
+      <c r="D2447" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2447" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2447" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2448" s="35">
+        <v>2447</v>
+      </c>
+      <c r="B2448" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2448" s="35">
+        <v>74</v>
+      </c>
+      <c r="D2448" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2448" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2448" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2449" s="35">
+        <v>2448</v>
+      </c>
+      <c r="B2449" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2449" s="35">
+        <v>87</v>
+      </c>
+      <c r="D2449" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2449" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2449" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2450" s="35">
+        <v>2449</v>
+      </c>
+      <c r="B2450" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2450" s="35">
+        <v>83</v>
+      </c>
+      <c r="D2450" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2450" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2450" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2451" s="35">
+        <v>2450</v>
+      </c>
+      <c r="B2451" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2451" s="35">
+        <v>42</v>
+      </c>
+      <c r="D2451" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2451" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2451" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2452" s="35">
+        <v>2451</v>
+      </c>
+      <c r="B2452" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2452" s="35">
+        <v>79</v>
+      </c>
+      <c r="D2452" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2452" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2452" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2453" s="35">
+        <v>2452</v>
+      </c>
+      <c r="B2453" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2453" s="35">
+        <v>70</v>
+      </c>
+      <c r="D2453" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2453" s="44">
+        <v>44027</v>
+      </c>
+      <c r="F2453" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2454" s="35">
+        <v>2453</v>
+      </c>
+      <c r="B2454" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2454" s="35">
+        <v>83</v>
+      </c>
+      <c r="D2454" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2454" s="44">
+        <v>44027</v>
+      </c>
+      <c r="F2454" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2455" s="35">
+        <v>2454</v>
+      </c>
+      <c r="B2455" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2455" s="35">
+        <v>68</v>
+      </c>
+      <c r="D2455" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2455" s="44">
+        <v>44027</v>
+      </c>
+      <c r="F2455" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2456" s="35">
+        <v>2455</v>
+      </c>
+      <c r="B2456" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2456" s="35">
+        <v>85</v>
+      </c>
+      <c r="D2456" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2456" s="44">
+        <v>44027</v>
+      </c>
+      <c r="F2456" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2457" s="35">
+        <v>2456</v>
+      </c>
+      <c r="B2457" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2457" s="35">
+        <v>70</v>
+      </c>
+      <c r="D2457" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2457" s="44">
+        <v>44027</v>
+      </c>
+      <c r="F2457" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2458" s="35">
+        <v>2457</v>
+      </c>
+      <c r="B2458" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2458" s="35">
+        <v>51</v>
+      </c>
+      <c r="D2458" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2458" s="44">
+        <v>44029</v>
+      </c>
+      <c r="F2458" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2459" s="35">
+        <v>2458</v>
+      </c>
+      <c r="B2459" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2459" s="35">
+        <v>69</v>
+      </c>
+      <c r="D2459" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2459" s="44">
+        <v>44031</v>
+      </c>
+      <c r="F2459" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2460" s="35">
+        <v>2459</v>
+      </c>
+      <c r="B2460" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2460" s="35">
+        <v>71</v>
+      </c>
+      <c r="D2460" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2460" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2460" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2461" s="35">
+        <v>2460</v>
+      </c>
+      <c r="B2461" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2461" s="35">
+        <v>70</v>
+      </c>
+      <c r="D2461" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2461" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2461" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2462" s="35">
+        <v>2461</v>
+      </c>
+      <c r="B2462" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2462" s="35">
+        <v>58</v>
+      </c>
+      <c r="D2462" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2462" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2462" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F2430" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/data-raw/OBITOS_CONF_COVID-19_MG.xlsx
+++ b/data-raw/OBITOS_CONF_COVID-19_MG.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjunior/Local/github/dados-mg/ckan/obitos-confirmados-covid-19/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E5E3091-F9C0-724D-8DEA-359FD0009247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A22DBE0D-6378-1049-B457-22939A3E82AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Óbitos_COVID-19_MG" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Óbitos_COVID-19_MG'!$A$1:$F$2430</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Óbitos_COVID-19_MG'!$A$1:$F$2552</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7389" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7659" uniqueCount="400">
   <si>
     <t>M</t>
   </si>
@@ -1149,9 +1149,6 @@
     <t>Riacho dos Machados</t>
   </si>
   <si>
-    <t>Não informado</t>
-  </si>
-  <si>
     <t>Ipanema</t>
   </si>
   <si>
@@ -1189,9 +1186,6 @@
   </si>
   <si>
     <t>Rubim</t>
-  </si>
-  <si>
-    <t>Não Informado</t>
   </si>
   <si>
     <t>Rio Casca</t>
@@ -1234,6 +1228,9 @@
   </si>
   <si>
     <t>Iraí de Minas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraisópolis </t>
   </si>
 </sst>
 </file>
@@ -2561,11 +2558,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2462"/>
+  <dimension ref="A1:K2552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2443" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2463" sqref="A2463:IV2466"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15074,7 +15069,7 @@
       <c r="E625" s="10">
         <v>43997</v>
       </c>
-      <c r="F625" s="124" t="s">
+      <c r="F625" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -15414,7 +15409,7 @@
       <c r="E642" s="151">
         <v>43995</v>
       </c>
-      <c r="F642" s="124" t="s">
+      <c r="F642" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -15614,7 +15609,7 @@
       <c r="E652" s="151">
         <v>44000</v>
       </c>
-      <c r="F652" s="124" t="s">
+      <c r="F652" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -16574,7 +16569,7 @@
       <c r="E700" s="151">
         <v>43998</v>
       </c>
-      <c r="F700" s="124" t="s">
+      <c r="F700" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -22594,7 +22589,7 @@
       <c r="E1001" s="5">
         <v>43998</v>
       </c>
-      <c r="F1001" s="35" t="s">
+      <c r="F1001" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -22674,7 +22669,7 @@
       <c r="E1005" s="5">
         <v>44010</v>
       </c>
-      <c r="F1005" s="35" t="s">
+      <c r="F1005" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -42239,7 +42234,7 @@
       <c r="E1983" s="44">
         <v>44030</v>
       </c>
-      <c r="F1983" s="35" t="s">
+      <c r="F1983" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -42319,7 +42314,7 @@
       <c r="E1987" s="44">
         <v>44028</v>
       </c>
-      <c r="F1987" s="35" t="s">
+      <c r="F1987" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -42379,7 +42374,7 @@
       <c r="E1990" s="44">
         <v>44028</v>
       </c>
-      <c r="F1990" s="35" t="s">
+      <c r="F1990" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -43941,7 +43936,7 @@
         <v>44029</v>
       </c>
       <c r="F2068" s="4" t="s">
-        <v>372</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2069" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -43961,7 +43956,7 @@
         <v>44030</v>
       </c>
       <c r="F2069" s="4" t="s">
-        <v>372</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2070" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -43981,7 +43976,7 @@
         <v>44029</v>
       </c>
       <c r="F2070" s="4" t="s">
-        <v>372</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2071" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -44001,7 +43996,7 @@
         <v>44030</v>
       </c>
       <c r="F2071" s="4" t="s">
-        <v>372</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2072" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -44041,7 +44036,7 @@
         <v>44028</v>
       </c>
       <c r="F2073" s="4" t="s">
-        <v>372</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2074" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -44061,7 +44056,7 @@
         <v>44029</v>
       </c>
       <c r="F2074" s="4" t="s">
-        <v>372</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2075" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -44081,7 +44076,7 @@
         <v>44029</v>
       </c>
       <c r="F2075" s="4" t="s">
-        <v>372</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2076" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -44101,7 +44096,7 @@
         <v>44030</v>
       </c>
       <c r="F2076" s="4" t="s">
-        <v>372</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2077" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -44521,7 +44516,7 @@
         <v>44029</v>
       </c>
       <c r="F2097" s="4" t="s">
-        <v>372</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2098" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -44561,7 +44556,7 @@
         <v>44026</v>
       </c>
       <c r="F2099" s="4" t="s">
-        <v>372</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -45021,7 +45016,7 @@
         <v>44024</v>
       </c>
       <c r="F2122" s="4" t="s">
-        <v>372</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -45801,7 +45796,7 @@
         <v>44030</v>
       </c>
       <c r="F2161" s="4" t="s">
-        <v>386</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -45815,7 +45810,7 @@
         <v>78</v>
       </c>
       <c r="D2162" s="35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E2162" s="44">
         <v>44026</v>
@@ -45855,7 +45850,7 @@
         <v>69</v>
       </c>
       <c r="D2164" s="35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E2164" s="44">
         <v>44028</v>
@@ -45915,7 +45910,7 @@
         <v>84</v>
       </c>
       <c r="D2167" s="35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E2167" s="44">
         <v>44031</v>
@@ -45935,7 +45930,7 @@
         <v>76</v>
       </c>
       <c r="D2168" s="35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E2168" s="44">
         <v>44031</v>
@@ -45981,7 +45976,7 @@
         <v>44030</v>
       </c>
       <c r="F2170" s="4" t="s">
-        <v>386</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -46275,7 +46270,7 @@
         <v>79</v>
       </c>
       <c r="D2185" s="35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E2185" s="44">
         <v>44032</v>
@@ -46415,7 +46410,7 @@
         <v>0</v>
       </c>
       <c r="D2192" s="35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E2192" s="44">
         <v>44028</v>
@@ -46435,7 +46430,7 @@
         <v>95</v>
       </c>
       <c r="D2193" s="35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E2193" s="44">
         <v>44023</v>
@@ -46721,7 +46716,7 @@
         <v>44033</v>
       </c>
       <c r="F2207" s="4" t="s">
-        <v>386</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -46841,7 +46836,7 @@
         <v>44015</v>
       </c>
       <c r="F2213" s="4" t="s">
-        <v>386</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -46861,7 +46856,7 @@
         <v>44029</v>
       </c>
       <c r="F2214" s="4" t="s">
-        <v>386</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -47041,7 +47036,7 @@
         <v>44027</v>
       </c>
       <c r="F2223" s="4" t="s">
-        <v>386</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -47241,7 +47236,7 @@
         <v>44027</v>
       </c>
       <c r="F2233" s="4" t="s">
-        <v>386</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -47375,7 +47370,7 @@
         <v>35</v>
       </c>
       <c r="D2240" s="35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E2240" s="44">
         <v>44031</v>
@@ -47461,7 +47456,7 @@
         <v>44032</v>
       </c>
       <c r="F2244" s="4" t="s">
-        <v>386</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -47581,7 +47576,7 @@
         <v>44027</v>
       </c>
       <c r="F2250" s="4" t="s">
-        <v>386</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -47641,7 +47636,7 @@
         <v>44033</v>
       </c>
       <c r="F2253" s="4" t="s">
-        <v>386</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -47655,7 +47650,7 @@
         <v>41</v>
       </c>
       <c r="D2254" s="35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E2254" s="44">
         <v>44033</v>
@@ -47721,7 +47716,7 @@
         <v>44029</v>
       </c>
       <c r="F2257" s="4" t="s">
-        <v>386</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -47735,7 +47730,7 @@
         <v>59</v>
       </c>
       <c r="D2258" s="35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E2258" s="44">
         <v>44026</v>
@@ -47895,7 +47890,7 @@
         <v>71</v>
       </c>
       <c r="D2266" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E2266" s="44">
         <v>44026</v>
@@ -47935,7 +47930,7 @@
         <v>67</v>
       </c>
       <c r="D2268" s="35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E2268" s="44">
         <v>44024</v>
@@ -47955,7 +47950,7 @@
         <v>57</v>
       </c>
       <c r="D2269" s="35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E2269" s="44">
         <v>44028</v>
@@ -48095,7 +48090,7 @@
         <v>90</v>
       </c>
       <c r="D2276" s="35" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="E2276" s="44">
         <v>44031</v>
@@ -48595,7 +48590,7 @@
         <v>84</v>
       </c>
       <c r="D2301" s="35" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E2301" s="44">
         <v>44030</v>
@@ -48915,13 +48910,13 @@
         <v>73</v>
       </c>
       <c r="D2317" s="35" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E2317" s="44">
         <v>44027</v>
       </c>
-      <c r="F2317" s="35" t="s">
-        <v>372</v>
+      <c r="F2317" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2318" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -48940,8 +48935,8 @@
       <c r="E2318" s="44">
         <v>44028</v>
       </c>
-      <c r="F2318" s="35" t="s">
-        <v>372</v>
+      <c r="F2318" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2319" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -48960,8 +48955,8 @@
       <c r="E2319" s="44">
         <v>44028</v>
       </c>
-      <c r="F2319" s="35" t="s">
-        <v>372</v>
+      <c r="F2319" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2320" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -48975,13 +48970,13 @@
         <v>69</v>
       </c>
       <c r="D2320" s="35" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E2320" s="44">
         <v>44033</v>
       </c>
-      <c r="F2320" s="35" t="s">
-        <v>372</v>
+      <c r="F2320" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2321" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -49055,7 +49050,7 @@
         <v>61</v>
       </c>
       <c r="D2324" s="35" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E2324" s="44">
         <v>44027</v>
@@ -49135,7 +49130,7 @@
         <v>88</v>
       </c>
       <c r="D2328" s="35" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E2328" s="44">
         <v>44027</v>
@@ -49175,13 +49170,13 @@
         <v>85</v>
       </c>
       <c r="D2330" s="35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E2330" s="44">
         <v>44033</v>
       </c>
-      <c r="F2330" s="35" t="s">
-        <v>372</v>
+      <c r="F2330" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2331" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -49555,7 +49550,7 @@
         <v>57</v>
       </c>
       <c r="D2349" s="35" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E2349" s="44">
         <v>44029</v>
@@ -49655,7 +49650,7 @@
         <v>60</v>
       </c>
       <c r="D2354" s="35" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E2354" s="44">
         <v>44023</v>
@@ -49735,7 +49730,7 @@
         <v>75</v>
       </c>
       <c r="D2358" s="35" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E2358" s="44">
         <v>44033</v>
@@ -49755,7 +49750,7 @@
         <v>82</v>
       </c>
       <c r="D2359" s="35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E2359" s="44">
         <v>44034</v>
@@ -49800,8 +49795,8 @@
       <c r="E2361" s="44">
         <v>44031</v>
       </c>
-      <c r="F2361" s="35" t="s">
-        <v>372</v>
+      <c r="F2361" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2362" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -49860,8 +49855,8 @@
       <c r="E2364" s="44">
         <v>44035</v>
       </c>
-      <c r="F2364" s="35" t="s">
-        <v>372</v>
+      <c r="F2364" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2365" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -49875,7 +49870,7 @@
         <v>65</v>
       </c>
       <c r="D2365" s="35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E2365" s="44">
         <v>44031</v>
@@ -49895,7 +49890,7 @@
         <v>54</v>
       </c>
       <c r="D2366" s="35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E2366" s="44">
         <v>44030</v>
@@ -50095,7 +50090,7 @@
         <v>55</v>
       </c>
       <c r="D2376" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E2376" s="44">
         <v>44036</v>
@@ -50540,8 +50535,8 @@
       <c r="E2398" s="44">
         <v>44035</v>
       </c>
-      <c r="F2398" s="35" t="s">
-        <v>372</v>
+      <c r="F2398" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2399" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -50640,8 +50635,8 @@
       <c r="E2403" s="44">
         <v>44032</v>
       </c>
-      <c r="F2403" s="35" t="s">
-        <v>372</v>
+      <c r="F2403" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2404" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -50700,8 +50695,8 @@
       <c r="E2406" s="44">
         <v>44036</v>
       </c>
-      <c r="F2406" s="35" t="s">
-        <v>372</v>
+      <c r="F2406" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2407" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -50875,7 +50870,7 @@
         <v>38</v>
       </c>
       <c r="D2415" s="35" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E2415" s="44">
         <v>44020</v>
@@ -50895,7 +50890,7 @@
         <v>55</v>
       </c>
       <c r="D2416" s="35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E2416" s="44">
         <v>44025</v>
@@ -51075,7 +51070,7 @@
         <v>62</v>
       </c>
       <c r="D2425" s="35" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E2425" s="44">
         <v>44034</v>
@@ -51155,7 +51150,7 @@
         <v>99</v>
       </c>
       <c r="D2429" s="35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E2429" s="44">
         <v>44031</v>
@@ -51255,7 +51250,7 @@
         <v>92</v>
       </c>
       <c r="D2434" s="35" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E2434" s="44">
         <v>44037</v>
@@ -51315,7 +51310,7 @@
         <v>68</v>
       </c>
       <c r="D2437" s="35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E2437" s="44">
         <v>44035</v>
@@ -51475,7 +51470,7 @@
         <v>76</v>
       </c>
       <c r="D2445" s="35" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E2445" s="44">
         <v>44038</v>
@@ -51520,8 +51515,8 @@
       <c r="E2447" s="44">
         <v>44036</v>
       </c>
-      <c r="F2447" s="35" t="s">
-        <v>372</v>
+      <c r="F2447" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2448" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -51580,8 +51575,8 @@
       <c r="E2450" s="44">
         <v>44037</v>
       </c>
-      <c r="F2450" s="35" t="s">
-        <v>372</v>
+      <c r="F2450" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2451" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -51600,8 +51595,8 @@
       <c r="E2451" s="44">
         <v>44037</v>
       </c>
-      <c r="F2451" s="35" t="s">
-        <v>372</v>
+      <c r="F2451" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2452" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -51740,8 +51735,8 @@
       <c r="E2458" s="44">
         <v>44029</v>
       </c>
-      <c r="F2458" s="35" t="s">
-        <v>372</v>
+      <c r="F2458" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2459" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -51821,6 +51816,1806 @@
         <v>44037</v>
       </c>
       <c r="F2462" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2463" s="35">
+        <v>2462</v>
+      </c>
+      <c r="B2463" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2463" s="35">
+        <v>81</v>
+      </c>
+      <c r="D2463" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2463" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2463" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2464" s="35">
+        <v>2463</v>
+      </c>
+      <c r="B2464" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2464" s="35">
+        <v>83</v>
+      </c>
+      <c r="D2464" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2464" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2464" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2465" s="35">
+        <v>2464</v>
+      </c>
+      <c r="B2465" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2465" s="35">
+        <v>85</v>
+      </c>
+      <c r="D2465" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2465" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2465" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2466" s="35">
+        <v>2465</v>
+      </c>
+      <c r="B2466" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2466" s="35">
+        <v>80</v>
+      </c>
+      <c r="D2466" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2466" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2466" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2467" s="35">
+        <v>2466</v>
+      </c>
+      <c r="B2467" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2467" s="35">
+        <v>50</v>
+      </c>
+      <c r="D2467" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2467" s="44">
+        <v>44019</v>
+      </c>
+      <c r="F2467" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2468" s="35">
+        <v>2467</v>
+      </c>
+      <c r="B2468" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2468" s="35">
+        <v>75</v>
+      </c>
+      <c r="D2468" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2468" s="44">
+        <v>44020</v>
+      </c>
+      <c r="F2468" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2469" s="35">
+        <v>2468</v>
+      </c>
+      <c r="B2469" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2469" s="35">
+        <v>85</v>
+      </c>
+      <c r="D2469" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2469" s="44">
+        <v>44022</v>
+      </c>
+      <c r="F2469" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2470" s="35">
+        <v>2469</v>
+      </c>
+      <c r="B2470" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2470" s="35">
+        <v>79</v>
+      </c>
+      <c r="D2470" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2470" s="44">
+        <v>44023</v>
+      </c>
+      <c r="F2470" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2471" s="35">
+        <v>2470</v>
+      </c>
+      <c r="B2471" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2471" s="35">
+        <v>66</v>
+      </c>
+      <c r="D2471" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2471" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2471" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2472" s="35">
+        <v>2471</v>
+      </c>
+      <c r="B2472" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2472" s="35">
+        <v>28</v>
+      </c>
+      <c r="D2472" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2472" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2472" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2473" s="35">
+        <v>2472</v>
+      </c>
+      <c r="B2473" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2473" s="35">
+        <v>67</v>
+      </c>
+      <c r="D2473" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2473" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2473" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2474" s="35">
+        <v>2473</v>
+      </c>
+      <c r="B2474" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2474" s="35">
+        <v>59</v>
+      </c>
+      <c r="D2474" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2474" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2474" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2475" s="35">
+        <v>2474</v>
+      </c>
+      <c r="B2475" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2475" s="35">
+        <v>71</v>
+      </c>
+      <c r="D2475" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2475" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2475" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2476" s="35">
+        <v>2475</v>
+      </c>
+      <c r="B2476" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2476" s="35">
+        <v>82</v>
+      </c>
+      <c r="D2476" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2476" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2476" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2477" s="35">
+        <v>2476</v>
+      </c>
+      <c r="B2477" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2477" s="35">
+        <v>92</v>
+      </c>
+      <c r="D2477" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2477" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2477" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2478" s="35">
+        <v>2477</v>
+      </c>
+      <c r="B2478" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2478" s="35">
+        <v>75</v>
+      </c>
+      <c r="D2478" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2478" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2478" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2479" s="35">
+        <v>2478</v>
+      </c>
+      <c r="B2479" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2479" s="35">
+        <v>79</v>
+      </c>
+      <c r="D2479" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2479" s="44">
+        <v>44023</v>
+      </c>
+      <c r="F2479" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2480" s="35">
+        <v>2479</v>
+      </c>
+      <c r="B2480" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2480" s="35">
+        <v>73</v>
+      </c>
+      <c r="D2480" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2480" s="44">
+        <v>44026</v>
+      </c>
+      <c r="F2480" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2481" s="35">
+        <v>2480</v>
+      </c>
+      <c r="B2481" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2481" s="35">
+        <v>78</v>
+      </c>
+      <c r="D2481" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2481" s="44">
+        <v>44021</v>
+      </c>
+      <c r="F2481" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2482" s="35">
+        <v>2481</v>
+      </c>
+      <c r="B2482" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2482" s="35">
+        <v>74</v>
+      </c>
+      <c r="D2482" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2482" s="44">
+        <v>44022</v>
+      </c>
+      <c r="F2482" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2483" s="35">
+        <v>2482</v>
+      </c>
+      <c r="B2483" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2483" s="35">
+        <v>82</v>
+      </c>
+      <c r="D2483" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2483" s="44">
+        <v>44031</v>
+      </c>
+      <c r="F2483" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2484" s="35">
+        <v>2483</v>
+      </c>
+      <c r="B2484" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2484" s="35">
+        <v>90</v>
+      </c>
+      <c r="D2484" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2484" s="44">
+        <v>44022</v>
+      </c>
+      <c r="F2484" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2485" s="35">
+        <v>2484</v>
+      </c>
+      <c r="B2485" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2485" s="35">
+        <v>79</v>
+      </c>
+      <c r="D2485" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2485" s="44">
+        <v>44022</v>
+      </c>
+      <c r="F2485" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2486" s="35">
+        <v>2485</v>
+      </c>
+      <c r="B2486" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2486" s="35">
+        <v>67</v>
+      </c>
+      <c r="D2486" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2486" s="44">
+        <v>44015</v>
+      </c>
+      <c r="F2486" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2487" s="35">
+        <v>2486</v>
+      </c>
+      <c r="B2487" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2487" s="35">
+        <v>65</v>
+      </c>
+      <c r="D2487" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2487" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2487" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2488" s="35">
+        <v>2487</v>
+      </c>
+      <c r="B2488" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2488" s="35">
+        <v>74</v>
+      </c>
+      <c r="D2488" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2488" s="44">
+        <v>44029</v>
+      </c>
+      <c r="F2488" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2489" s="35">
+        <v>2488</v>
+      </c>
+      <c r="B2489" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2489" s="35">
+        <v>83</v>
+      </c>
+      <c r="D2489" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2489" s="44">
+        <v>44001</v>
+      </c>
+      <c r="F2489" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2490" s="35">
+        <v>2489</v>
+      </c>
+      <c r="B2490" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2490" s="35">
+        <v>80</v>
+      </c>
+      <c r="D2490" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2490" s="44">
+        <v>44004</v>
+      </c>
+      <c r="F2490" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2491" s="35">
+        <v>2490</v>
+      </c>
+      <c r="B2491" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2491" s="35">
+        <v>74</v>
+      </c>
+      <c r="D2491" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2491" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2491" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2492" s="35">
+        <v>2491</v>
+      </c>
+      <c r="B2492" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2492" s="35">
+        <v>88</v>
+      </c>
+      <c r="D2492" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2492" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2492" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2493" s="35">
+        <v>2492</v>
+      </c>
+      <c r="B2493" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2493" s="35">
+        <v>71</v>
+      </c>
+      <c r="D2493" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2493" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2493" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2494" s="35">
+        <v>2493</v>
+      </c>
+      <c r="B2494" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2494" s="35">
+        <v>82</v>
+      </c>
+      <c r="D2494" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2494" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2494" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2495" s="35">
+        <v>2494</v>
+      </c>
+      <c r="B2495" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2495" s="35">
+        <v>76</v>
+      </c>
+      <c r="D2495" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2495" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2495" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2496" s="35">
+        <v>2495</v>
+      </c>
+      <c r="B2496" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2496" s="35">
+        <v>87</v>
+      </c>
+      <c r="D2496" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2496" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2496" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2497" s="35">
+        <v>2496</v>
+      </c>
+      <c r="B2497" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2497" s="35">
+        <v>65</v>
+      </c>
+      <c r="D2497" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2497" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2497" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2498" s="35">
+        <v>2497</v>
+      </c>
+      <c r="B2498" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2498" s="35">
+        <v>86</v>
+      </c>
+      <c r="D2498" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2498" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2498" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2499" s="35">
+        <v>2498</v>
+      </c>
+      <c r="B2499" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2499" s="35">
+        <v>61</v>
+      </c>
+      <c r="D2499" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2499" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2499" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2500" s="35">
+        <v>2499</v>
+      </c>
+      <c r="B2500" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2500" s="35">
+        <v>66</v>
+      </c>
+      <c r="D2500" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2500" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2500" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2501" s="35">
+        <v>2500</v>
+      </c>
+      <c r="B2501" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2501" s="35">
+        <v>60</v>
+      </c>
+      <c r="D2501" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2501" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2501" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2502" s="35">
+        <v>2501</v>
+      </c>
+      <c r="B2502" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2502" s="35">
+        <v>56</v>
+      </c>
+      <c r="D2502" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2502" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2502" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2503" s="35">
+        <v>2502</v>
+      </c>
+      <c r="B2503" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2503" s="35">
+        <v>63</v>
+      </c>
+      <c r="D2503" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2503" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2503" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2504" s="35">
+        <v>2503</v>
+      </c>
+      <c r="B2504" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2504" s="35">
+        <v>74</v>
+      </c>
+      <c r="D2504" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2504" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2504" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2505" s="35">
+        <v>2504</v>
+      </c>
+      <c r="B2505" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2505" s="35">
+        <v>89</v>
+      </c>
+      <c r="D2505" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2505" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2505" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2506" s="35">
+        <v>2505</v>
+      </c>
+      <c r="B2506" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2506" s="35">
+        <v>88</v>
+      </c>
+      <c r="D2506" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2506" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2506" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2507" s="35">
+        <v>2506</v>
+      </c>
+      <c r="B2507" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2507" s="35">
+        <v>72</v>
+      </c>
+      <c r="D2507" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2507" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2507" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2508" s="35">
+        <v>2507</v>
+      </c>
+      <c r="B2508" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2508" s="35">
+        <v>65</v>
+      </c>
+      <c r="D2508" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2508" s="44">
+        <v>44031</v>
+      </c>
+      <c r="F2508" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2509" s="35">
+        <v>2508</v>
+      </c>
+      <c r="B2509" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2509" s="35">
+        <v>67</v>
+      </c>
+      <c r="D2509" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2509" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2509" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2510" s="35">
+        <v>2509</v>
+      </c>
+      <c r="B2510" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2510" s="35">
+        <v>63</v>
+      </c>
+      <c r="D2510" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2510" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2510" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2511" s="35">
+        <v>2510</v>
+      </c>
+      <c r="B2511" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2511" s="35">
+        <v>55</v>
+      </c>
+      <c r="D2511" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2511" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2511" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2512" s="35">
+        <v>2511</v>
+      </c>
+      <c r="B2512" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2512" s="35">
+        <v>76</v>
+      </c>
+      <c r="D2512" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2512" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2512" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2513" s="35">
+        <v>2512</v>
+      </c>
+      <c r="B2513" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2513" s="35">
+        <v>76</v>
+      </c>
+      <c r="D2513" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2513" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2513" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2514" s="35">
+        <v>2513</v>
+      </c>
+      <c r="B2514" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2514" s="35">
+        <v>88</v>
+      </c>
+      <c r="D2514" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2514" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2514" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2515" s="35">
+        <v>2514</v>
+      </c>
+      <c r="B2515" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2515" s="35">
+        <v>73</v>
+      </c>
+      <c r="D2515" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2515" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2515" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2516" s="35">
+        <v>2515</v>
+      </c>
+      <c r="B2516" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2516" s="35">
+        <v>75</v>
+      </c>
+      <c r="D2516" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2516" s="44">
+        <v>44021</v>
+      </c>
+      <c r="F2516" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2517" s="35">
+        <v>2516</v>
+      </c>
+      <c r="B2517" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2517" s="35">
+        <v>66</v>
+      </c>
+      <c r="D2517" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2517" s="44">
+        <v>44018</v>
+      </c>
+      <c r="F2517" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2518" s="35">
+        <v>2517</v>
+      </c>
+      <c r="B2518" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2518" s="35">
+        <v>79</v>
+      </c>
+      <c r="D2518" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2518" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2518" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2519" s="35">
+        <v>2518</v>
+      </c>
+      <c r="B2519" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2519" s="35">
+        <v>60</v>
+      </c>
+      <c r="D2519" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2519" s="44">
+        <v>44022</v>
+      </c>
+      <c r="F2519" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2520" s="35">
+        <v>2519</v>
+      </c>
+      <c r="B2520" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2520" s="35">
+        <v>92</v>
+      </c>
+      <c r="D2520" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2520" s="44">
+        <v>44030</v>
+      </c>
+      <c r="F2520" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2521" s="35">
+        <v>2520</v>
+      </c>
+      <c r="B2521" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2521" s="35">
+        <v>72</v>
+      </c>
+      <c r="D2521" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2521" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2521" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2522" s="35">
+        <v>2521</v>
+      </c>
+      <c r="B2522" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2522" s="35">
+        <v>84</v>
+      </c>
+      <c r="D2522" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2522" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2522" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2523" s="35">
+        <v>2522</v>
+      </c>
+      <c r="B2523" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2523" s="35">
+        <v>69</v>
+      </c>
+      <c r="D2523" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2523" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2523" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2524" s="35">
+        <v>2523</v>
+      </c>
+      <c r="B2524" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2524" s="35">
+        <v>61</v>
+      </c>
+      <c r="D2524" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2524" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2524" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2525" s="35">
+        <v>2524</v>
+      </c>
+      <c r="B2525" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2525" s="35">
+        <v>85</v>
+      </c>
+      <c r="D2525" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2525" s="44">
+        <v>44022</v>
+      </c>
+      <c r="F2525" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2526" s="35">
+        <v>2525</v>
+      </c>
+      <c r="B2526" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2526" s="35">
+        <v>69</v>
+      </c>
+      <c r="D2526" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2526" s="44">
+        <v>44028</v>
+      </c>
+      <c r="F2526" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2527" s="35">
+        <v>2526</v>
+      </c>
+      <c r="B2527" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2527" s="35">
+        <v>48</v>
+      </c>
+      <c r="D2527" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2527" s="44">
+        <v>44025</v>
+      </c>
+      <c r="F2527" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2528" s="35">
+        <v>2527</v>
+      </c>
+      <c r="B2528" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2528" s="35">
+        <v>84</v>
+      </c>
+      <c r="D2528" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2528" s="44">
+        <v>44025</v>
+      </c>
+      <c r="F2528" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2529" s="35">
+        <v>2528</v>
+      </c>
+      <c r="B2529" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2529" s="230">
+        <v>83</v>
+      </c>
+      <c r="D2529" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2529" s="44">
+        <v>44031</v>
+      </c>
+      <c r="F2529" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2530" s="35">
+        <v>2529</v>
+      </c>
+      <c r="B2530" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2530" s="230">
+        <v>83</v>
+      </c>
+      <c r="D2530" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2530" s="44">
+        <v>44020</v>
+      </c>
+      <c r="F2530" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2531" s="35">
+        <v>2530</v>
+      </c>
+      <c r="B2531" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2531" s="230">
+        <v>82</v>
+      </c>
+      <c r="D2531" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2531" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2531" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2532" s="35">
+        <v>2531</v>
+      </c>
+      <c r="B2532" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2532" s="230">
+        <v>73</v>
+      </c>
+      <c r="D2532" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2532" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2532" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2533" s="35">
+        <v>2532</v>
+      </c>
+      <c r="B2533" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2533" s="230">
+        <v>93</v>
+      </c>
+      <c r="D2533" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2533" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2533" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2534" s="35">
+        <v>2533</v>
+      </c>
+      <c r="B2534" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2534" s="230">
+        <v>90</v>
+      </c>
+      <c r="D2534" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2534" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2534" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2535" s="35">
+        <v>2534</v>
+      </c>
+      <c r="B2535" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2535" s="230">
+        <v>72</v>
+      </c>
+      <c r="D2535" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2535" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2535" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2536" s="35">
+        <v>2535</v>
+      </c>
+      <c r="B2536" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2536" s="230">
+        <v>77</v>
+      </c>
+      <c r="D2536" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2536" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2536" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2537" s="35">
+        <v>2536</v>
+      </c>
+      <c r="B2537" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2537" s="230">
+        <v>63</v>
+      </c>
+      <c r="D2537" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2537" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2537" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2538" s="35">
+        <v>2537</v>
+      </c>
+      <c r="B2538" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2538" s="230">
+        <v>83</v>
+      </c>
+      <c r="D2538" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2538" s="44">
+        <v>44028</v>
+      </c>
+      <c r="F2538" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2539" s="35">
+        <v>2538</v>
+      </c>
+      <c r="B2539" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2539" s="230">
+        <v>81</v>
+      </c>
+      <c r="D2539" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2539" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2539" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2540" s="35">
+        <v>2539</v>
+      </c>
+      <c r="B2540" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2540" s="230">
+        <v>68</v>
+      </c>
+      <c r="D2540" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2540" s="44">
+        <v>44028</v>
+      </c>
+      <c r="F2540" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2541" s="35">
+        <v>2540</v>
+      </c>
+      <c r="B2541" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2541" s="230">
+        <v>76</v>
+      </c>
+      <c r="D2541" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2541" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2541" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2542" s="35">
+        <v>2541</v>
+      </c>
+      <c r="B2542" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2542" s="230">
+        <v>81</v>
+      </c>
+      <c r="D2542" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2542" s="44">
+        <v>44027</v>
+      </c>
+      <c r="F2542" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2543" s="35">
+        <v>2542</v>
+      </c>
+      <c r="B2543" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2543" s="230">
+        <v>68</v>
+      </c>
+      <c r="D2543" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2543" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2543" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2544" s="35">
+        <v>2543</v>
+      </c>
+      <c r="B2544" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2544" s="230">
+        <v>34</v>
+      </c>
+      <c r="D2544" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2544" s="44">
+        <v>44016</v>
+      </c>
+      <c r="F2544" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2545" s="35">
+        <v>2544</v>
+      </c>
+      <c r="B2545" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2545" s="230">
+        <v>75</v>
+      </c>
+      <c r="D2545" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2545" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2545" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2546" s="35">
+        <v>2545</v>
+      </c>
+      <c r="B2546" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2546" s="230">
+        <v>67</v>
+      </c>
+      <c r="D2546" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2546" s="44">
+        <v>44030</v>
+      </c>
+      <c r="F2546" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2547" s="35">
+        <v>2546</v>
+      </c>
+      <c r="B2547" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2547" s="230">
+        <v>96</v>
+      </c>
+      <c r="D2547" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2547" s="44">
+        <v>44020</v>
+      </c>
+      <c r="F2547" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2548" s="35">
+        <v>2547</v>
+      </c>
+      <c r="B2548" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2548" s="230">
+        <v>85</v>
+      </c>
+      <c r="D2548" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2548" s="44">
+        <v>44028</v>
+      </c>
+      <c r="F2548" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2549" s="35">
+        <v>2548</v>
+      </c>
+      <c r="B2549" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2549" s="230">
+        <v>63</v>
+      </c>
+      <c r="D2549" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2549" s="44">
+        <v>44030</v>
+      </c>
+      <c r="F2549" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2550" s="35">
+        <v>2549</v>
+      </c>
+      <c r="B2550" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2550" s="230">
+        <v>58</v>
+      </c>
+      <c r="D2550" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2550" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2550" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2551" s="35">
+        <v>2550</v>
+      </c>
+      <c r="B2551" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2551" s="230">
+        <v>63</v>
+      </c>
+      <c r="D2551" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2551" s="44">
+        <v>43996</v>
+      </c>
+      <c r="F2551" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2552" s="35">
+        <v>2551</v>
+      </c>
+      <c r="B2552" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2552" s="230">
+        <v>57</v>
+      </c>
+      <c r="D2552" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2552" s="44">
+        <v>44008</v>
+      </c>
+      <c r="F2552" s="35" t="s">
         <v>2</v>
       </c>
     </row>

--- a/data-raw/OBITOS_CONF_COVID-19_MG.xlsx
+++ b/data-raw/OBITOS_CONF_COVID-19_MG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjunior/Local/github/dados-mg/ckan/obitos-confirmados-covid-19/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA448264-67F5-EA49-9226-6E202AE6F23E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E2A936F-3554-5245-A063-6967298F36AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Óbitos_COVID-19_MG" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Óbitos_COVID-19_MG'!$A$1:$F$2609</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Óbitos_COVID-19_MG'!$A$1:$F$2693</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7830" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8098" uniqueCount="415">
   <si>
     <t>M</t>
   </si>
@@ -1244,6 +1244,39 @@
   <si>
     <t>Paraopeba</t>
   </si>
+  <si>
+    <t>Grão Mogol</t>
+  </si>
+  <si>
+    <t>Baependi</t>
+  </si>
+  <si>
+    <t>Muzambinho</t>
+  </si>
+  <si>
+    <t>21/07/2020</t>
+  </si>
+  <si>
+    <t>24/07/2020</t>
+  </si>
+  <si>
+    <t>25/07/2020</t>
+  </si>
+  <si>
+    <t>27/07/2020</t>
+  </si>
+  <si>
+    <t>22/07/2020</t>
+  </si>
+  <si>
+    <t>18/07/2020</t>
+  </si>
+  <si>
+    <t>23/07/2020</t>
+  </si>
+  <si>
+    <t>Brazópolis</t>
+  </si>
 </sst>
 </file>
 
@@ -1558,7 +1591,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2262,6 +2295,12 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2584,10 +2623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2609"/>
+  <dimension ref="A1:K2693"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:IV2"/>
+    <sheetView tabSelected="1" topLeftCell="A2671" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2694" sqref="A2694:IV2696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -54787,6 +54826,1686 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2610" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2610" s="35">
+        <v>2609</v>
+      </c>
+      <c r="B2610" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2610" s="235">
+        <v>59</v>
+      </c>
+      <c r="D2610" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2610" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2610" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2611" s="35">
+        <v>2610</v>
+      </c>
+      <c r="B2611" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2611" s="235">
+        <v>76</v>
+      </c>
+      <c r="D2611" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2611" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2611" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2612" s="35">
+        <v>2611</v>
+      </c>
+      <c r="B2612" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2612" s="235">
+        <v>54</v>
+      </c>
+      <c r="D2612" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2612" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2612" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2613" s="35">
+        <v>2612</v>
+      </c>
+      <c r="B2613" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2613" s="235">
+        <v>70</v>
+      </c>
+      <c r="D2613" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2613" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2613" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2614" s="35">
+        <v>2613</v>
+      </c>
+      <c r="B2614" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2614" s="235">
+        <v>60</v>
+      </c>
+      <c r="D2614" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2614" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2614" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2615" s="35">
+        <v>2614</v>
+      </c>
+      <c r="B2615" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2615" s="235">
+        <v>83</v>
+      </c>
+      <c r="D2615" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2615" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2615" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2616" s="35">
+        <v>2615</v>
+      </c>
+      <c r="B2616" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2616" s="235">
+        <v>67</v>
+      </c>
+      <c r="D2616" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2616" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2616" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2617" s="35">
+        <v>2616</v>
+      </c>
+      <c r="B2617" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2617" s="235">
+        <v>84</v>
+      </c>
+      <c r="D2617" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2617" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2617" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2618" s="35">
+        <v>2617</v>
+      </c>
+      <c r="B2618" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2618" s="235">
+        <v>49</v>
+      </c>
+      <c r="D2618" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2618" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2618" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2619" s="35">
+        <v>2618</v>
+      </c>
+      <c r="B2619" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2619" s="235">
+        <v>56</v>
+      </c>
+      <c r="D2619" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2619" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2619" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2620" s="35">
+        <v>2619</v>
+      </c>
+      <c r="B2620" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2620" s="235">
+        <v>92</v>
+      </c>
+      <c r="D2620" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2620" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2620" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2621" s="35">
+        <v>2620</v>
+      </c>
+      <c r="B2621" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2621" s="235">
+        <v>59</v>
+      </c>
+      <c r="D2621" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2621" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2621" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2622" s="35">
+        <v>2621</v>
+      </c>
+      <c r="B2622" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2622" s="235">
+        <v>61</v>
+      </c>
+      <c r="D2622" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2622" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2622" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2623" s="35">
+        <v>2622</v>
+      </c>
+      <c r="B2623" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2623" s="235">
+        <v>69</v>
+      </c>
+      <c r="D2623" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2623" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2623" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2624" s="35">
+        <v>2623</v>
+      </c>
+      <c r="B2624" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2624" s="235">
+        <v>66</v>
+      </c>
+      <c r="D2624" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2624" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2624" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2625" s="35">
+        <v>2624</v>
+      </c>
+      <c r="B2625" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2625" s="235">
+        <v>79</v>
+      </c>
+      <c r="D2625" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2625" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2625" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2626" s="35">
+        <v>2625</v>
+      </c>
+      <c r="B2626" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2626" s="235">
+        <v>84</v>
+      </c>
+      <c r="D2626" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2626" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2626" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2627" s="35">
+        <v>2626</v>
+      </c>
+      <c r="B2627" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2627" s="235">
+        <v>87</v>
+      </c>
+      <c r="D2627" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="E2627" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2627" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2628" s="35">
+        <v>2627</v>
+      </c>
+      <c r="B2628" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2628" s="235">
+        <v>80</v>
+      </c>
+      <c r="D2628" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2628" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2628" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2629" s="35">
+        <v>2628</v>
+      </c>
+      <c r="B2629" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2629" s="235">
+        <v>78</v>
+      </c>
+      <c r="D2629" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2629" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2629" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2630" s="35">
+        <v>2629</v>
+      </c>
+      <c r="B2630" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2630" s="235">
+        <v>75</v>
+      </c>
+      <c r="D2630" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="E2630" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2630" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2631" s="35">
+        <v>2630</v>
+      </c>
+      <c r="B2631" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2631" s="235">
+        <v>96</v>
+      </c>
+      <c r="D2631" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2631" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2631" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2632" s="35">
+        <v>2631</v>
+      </c>
+      <c r="B2632" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2632" s="235">
+        <v>79</v>
+      </c>
+      <c r="D2632" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2632" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2632" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2633" s="35">
+        <v>2632</v>
+      </c>
+      <c r="B2633" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2633" s="235">
+        <v>92</v>
+      </c>
+      <c r="D2633" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2633" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2633" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2634" s="35">
+        <v>2633</v>
+      </c>
+      <c r="B2634" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2634" s="235">
+        <v>56</v>
+      </c>
+      <c r="D2634" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2634" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2634" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2635" s="35">
+        <v>2634</v>
+      </c>
+      <c r="B2635" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2635" s="235">
+        <v>70</v>
+      </c>
+      <c r="D2635" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2635" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2635" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2636" s="35">
+        <v>2635</v>
+      </c>
+      <c r="B2636" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2636" s="235">
+        <v>77</v>
+      </c>
+      <c r="D2636" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2636" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2636" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2637" s="35">
+        <v>2636</v>
+      </c>
+      <c r="B2637" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2637" s="235">
+        <v>93</v>
+      </c>
+      <c r="D2637" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2637" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2637" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2638" s="35">
+        <v>2637</v>
+      </c>
+      <c r="B2638" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2638" s="235">
+        <v>48</v>
+      </c>
+      <c r="D2638" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2638" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2638" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2639" s="35">
+        <v>2638</v>
+      </c>
+      <c r="B2639" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2639" s="235">
+        <v>73</v>
+      </c>
+      <c r="D2639" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2639" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2639" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2640" s="35">
+        <v>2639</v>
+      </c>
+      <c r="B2640" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2640" s="235">
+        <v>86</v>
+      </c>
+      <c r="D2640" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2640" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2640" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2641" s="35">
+        <v>2640</v>
+      </c>
+      <c r="B2641" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2641" s="235">
+        <v>91</v>
+      </c>
+      <c r="D2641" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2641" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2641" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2642" s="35">
+        <v>2641</v>
+      </c>
+      <c r="B2642" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2642" s="235">
+        <v>85</v>
+      </c>
+      <c r="D2642" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2642" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2642" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2643" s="35">
+        <v>2642</v>
+      </c>
+      <c r="B2643" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2643" s="235">
+        <v>74</v>
+      </c>
+      <c r="D2643" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2643" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2643" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2644" s="35">
+        <v>2643</v>
+      </c>
+      <c r="B2644" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2644" s="235">
+        <v>45</v>
+      </c>
+      <c r="D2644" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2644" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2644" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2645" s="35">
+        <v>2644</v>
+      </c>
+      <c r="B2645" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2645" s="235">
+        <v>66</v>
+      </c>
+      <c r="D2645" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2645" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2645" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2646" s="35">
+        <v>2645</v>
+      </c>
+      <c r="B2646" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2646" s="235">
+        <v>76</v>
+      </c>
+      <c r="D2646" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2646" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2646" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2647" s="35">
+        <v>2646</v>
+      </c>
+      <c r="B2647" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2647" s="235">
+        <v>40</v>
+      </c>
+      <c r="D2647" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2647" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2647" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2648" s="35">
+        <v>2647</v>
+      </c>
+      <c r="B2648" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2648" s="235">
+        <v>78</v>
+      </c>
+      <c r="D2648" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2648" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2648" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2649" s="35">
+        <v>2648</v>
+      </c>
+      <c r="B2649" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2649" s="235">
+        <v>67</v>
+      </c>
+      <c r="D2649" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2649" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2649" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2650" s="35">
+        <v>2649</v>
+      </c>
+      <c r="B2650" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2650" s="235">
+        <v>79</v>
+      </c>
+      <c r="D2650" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2650" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2650" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2651" s="35">
+        <v>2650</v>
+      </c>
+      <c r="B2651" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2651" s="235">
+        <v>78</v>
+      </c>
+      <c r="D2651" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2651" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2651" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2652" s="35">
+        <v>2651</v>
+      </c>
+      <c r="B2652" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2652" s="235">
+        <v>70</v>
+      </c>
+      <c r="D2652" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2652" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2652" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2653" s="35">
+        <v>2652</v>
+      </c>
+      <c r="B2653" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2653" s="235">
+        <v>72</v>
+      </c>
+      <c r="D2653" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2653" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2653" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2654" s="35">
+        <v>2653</v>
+      </c>
+      <c r="B2654" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2654" s="235">
+        <v>73</v>
+      </c>
+      <c r="D2654" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2654" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2654" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2655" s="35">
+        <v>2654</v>
+      </c>
+      <c r="B2655" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2655" s="235">
+        <v>72</v>
+      </c>
+      <c r="D2655" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2655" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2655" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2656" s="35">
+        <v>2655</v>
+      </c>
+      <c r="B2656" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2656" s="235">
+        <v>79</v>
+      </c>
+      <c r="D2656" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2656" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2656" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2657" s="35">
+        <v>2656</v>
+      </c>
+      <c r="B2657" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2657" s="235">
+        <v>66</v>
+      </c>
+      <c r="D2657" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2657" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2657" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2658" s="35">
+        <v>2657</v>
+      </c>
+      <c r="B2658" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2658" s="235">
+        <v>75</v>
+      </c>
+      <c r="D2658" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2658" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2658" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2659" s="35">
+        <v>2658</v>
+      </c>
+      <c r="B2659" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2659" s="235">
+        <v>56</v>
+      </c>
+      <c r="D2659" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2659" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2659" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2660" s="35">
+        <v>2659</v>
+      </c>
+      <c r="B2660" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2660" s="235">
+        <v>82</v>
+      </c>
+      <c r="D2660" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2660" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2660" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2661" s="35">
+        <v>2660</v>
+      </c>
+      <c r="B2661" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2661" s="235">
+        <v>68</v>
+      </c>
+      <c r="D2661" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2661" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2661" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2662" s="35">
+        <v>2661</v>
+      </c>
+      <c r="B2662" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2662" s="235">
+        <v>38</v>
+      </c>
+      <c r="D2662" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2662" s="44">
+        <v>44030</v>
+      </c>
+      <c r="F2662" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2663" s="35">
+        <v>2662</v>
+      </c>
+      <c r="B2663" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2663" s="235">
+        <v>70</v>
+      </c>
+      <c r="D2663" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2663" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2663" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2664" s="35">
+        <v>2663</v>
+      </c>
+      <c r="B2664" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2664" s="235">
+        <v>83</v>
+      </c>
+      <c r="D2664" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2664" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2664" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2665" s="35">
+        <v>2664</v>
+      </c>
+      <c r="B2665" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2665" s="235">
+        <v>62</v>
+      </c>
+      <c r="D2665" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2665" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2665" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2666" s="35">
+        <v>2665</v>
+      </c>
+      <c r="B2666" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2666" s="235">
+        <v>76</v>
+      </c>
+      <c r="D2666" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2666" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2666" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2667" s="35">
+        <v>2666</v>
+      </c>
+      <c r="B2667" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2667" s="235">
+        <v>57</v>
+      </c>
+      <c r="D2667" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2667" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2667" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2668" s="35">
+        <v>2667</v>
+      </c>
+      <c r="B2668" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2668" s="235">
+        <v>69</v>
+      </c>
+      <c r="D2668" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2668" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2668" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2669" s="35">
+        <v>2668</v>
+      </c>
+      <c r="B2669" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2669" s="235">
+        <v>66</v>
+      </c>
+      <c r="D2669" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2669" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2669" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2670" s="35">
+        <v>2669</v>
+      </c>
+      <c r="B2670" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2670" s="235">
+        <v>59</v>
+      </c>
+      <c r="D2670" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2670" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2670" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2671" s="35">
+        <v>2670</v>
+      </c>
+      <c r="B2671" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2671" s="235">
+        <v>43</v>
+      </c>
+      <c r="D2671" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2671" s="44">
+        <v>44024</v>
+      </c>
+      <c r="F2671" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2672" s="35">
+        <v>2671</v>
+      </c>
+      <c r="B2672" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2672" s="235">
+        <v>58</v>
+      </c>
+      <c r="D2672" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2672" s="44">
+        <v>44015</v>
+      </c>
+      <c r="F2672" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2673" s="35">
+        <v>2672</v>
+      </c>
+      <c r="B2673" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2673" s="235">
+        <v>74</v>
+      </c>
+      <c r="D2673" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2673" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2673" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2674" s="35">
+        <v>2673</v>
+      </c>
+      <c r="B2674" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2674" s="235">
+        <v>67</v>
+      </c>
+      <c r="D2674" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2674" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2674" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2675" s="35">
+        <v>2674</v>
+      </c>
+      <c r="B2675" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2675" s="235">
+        <v>44</v>
+      </c>
+      <c r="D2675" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2675" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2675" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2676" s="35">
+        <v>2675</v>
+      </c>
+      <c r="B2676" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2676" s="235">
+        <v>75</v>
+      </c>
+      <c r="D2676" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2676" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2676" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2677" s="35">
+        <v>2676</v>
+      </c>
+      <c r="B2677" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2677" s="235">
+        <v>87</v>
+      </c>
+      <c r="D2677" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2677" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2677" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2678" s="35">
+        <v>2677</v>
+      </c>
+      <c r="B2678" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2678" s="236">
+        <v>45</v>
+      </c>
+      <c r="D2678" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2678" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2678" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2679" s="35">
+        <v>2678</v>
+      </c>
+      <c r="B2679" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2679" s="236">
+        <v>56</v>
+      </c>
+      <c r="D2679" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2679" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2679" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2680" s="35">
+        <v>2679</v>
+      </c>
+      <c r="B2680" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2680" s="236">
+        <v>93</v>
+      </c>
+      <c r="D2680" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2680" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2680" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2681" s="35">
+        <v>2680</v>
+      </c>
+      <c r="B2681" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2681" s="236">
+        <v>78</v>
+      </c>
+      <c r="D2681" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2681" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2681" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2682" s="35">
+        <v>2681</v>
+      </c>
+      <c r="B2682" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2682" s="236">
+        <v>68</v>
+      </c>
+      <c r="D2682" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2682" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2682" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2683" s="35">
+        <v>2682</v>
+      </c>
+      <c r="B2683" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2683" s="236">
+        <v>95</v>
+      </c>
+      <c r="D2683" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2683" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2683" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2684" s="35">
+        <v>2683</v>
+      </c>
+      <c r="B2684" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2684" s="236">
+        <v>45</v>
+      </c>
+      <c r="D2684" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2684" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2684" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2685" s="35">
+        <v>2684</v>
+      </c>
+      <c r="B2685" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2685" s="236">
+        <v>76</v>
+      </c>
+      <c r="D2685" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2685" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2685" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2686" s="35">
+        <v>2685</v>
+      </c>
+      <c r="B2686" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2686" s="236">
+        <v>69</v>
+      </c>
+      <c r="D2686" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2686" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2686" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2687" s="35">
+        <v>2686</v>
+      </c>
+      <c r="B2687" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2687" s="236">
+        <v>67</v>
+      </c>
+      <c r="D2687" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2687" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2687" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2688" s="35">
+        <v>2687</v>
+      </c>
+      <c r="B2688" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2688" s="236">
+        <v>91</v>
+      </c>
+      <c r="D2688" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2688" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2688" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2689" s="35">
+        <v>2688</v>
+      </c>
+      <c r="B2689" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2689" s="236">
+        <v>74</v>
+      </c>
+      <c r="D2689" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2689" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2689" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2690" s="35">
+        <v>2689</v>
+      </c>
+      <c r="B2690" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2690" s="236">
+        <v>57</v>
+      </c>
+      <c r="D2690" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2690" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2690" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2691" s="35">
+        <v>2690</v>
+      </c>
+      <c r="B2691" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2691" s="236">
+        <v>89</v>
+      </c>
+      <c r="D2691" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2691" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2691" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2692" s="35">
+        <v>2691</v>
+      </c>
+      <c r="B2692" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2692" s="236">
+        <v>89</v>
+      </c>
+      <c r="D2692" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2692" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="F2692" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2693" s="35">
+        <v>2692</v>
+      </c>
+      <c r="B2693" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2693" s="236">
+        <v>74</v>
+      </c>
+      <c r="D2693" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2693" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2693" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data-raw/OBITOS_CONF_COVID-19_MG.xlsx
+++ b/data-raw/OBITOS_CONF_COVID-19_MG.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjunior/Local/github/dados-mg/ckan/obitos-confirmados-covid-19/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E2A936F-3554-5245-A063-6967298F36AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E906B0-3B81-9440-9CBF-C40877818F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Óbitos_COVID-19_MG" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Óbitos_COVID-19_MG'!$A$1:$F$2693</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Óbitos_COVID-19_MG'!$A$1:$F$2770</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8098" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8360" uniqueCount="429">
   <si>
     <t>M</t>
   </si>
@@ -1236,9 +1236,6 @@
     <t>São Gonçalo do Abaeté</t>
   </si>
   <si>
-    <t>Eugenopolis</t>
-  </si>
-  <si>
     <t>Entre Folhas</t>
   </si>
   <si>
@@ -1277,11 +1274,56 @@
   <si>
     <t>Brazópolis</t>
   </si>
+  <si>
+    <t>29/07/20202</t>
+  </si>
+  <si>
+    <t>12/07/2020</t>
+  </si>
+  <si>
+    <t>26/07/2020</t>
+  </si>
+  <si>
+    <t>15/07/2020</t>
+  </si>
+  <si>
+    <t>17/07/2020</t>
+  </si>
+  <si>
+    <t>20/07/2020</t>
+  </si>
+  <si>
+    <t>11/07/2020</t>
+  </si>
+  <si>
+    <t>19/07/2020</t>
+  </si>
+  <si>
+    <t>28/07/2020</t>
+  </si>
+  <si>
+    <t>Brasília de Minas</t>
+  </si>
+  <si>
+    <t>Corinto</t>
+  </si>
+  <si>
+    <t>Conquista</t>
+  </si>
+  <si>
+    <t>Itaú de Minas</t>
+  </si>
+  <si>
+    <t>São João Batista do Glória</t>
+  </si>
+  <si>
+    <t>Nova Módica</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
@@ -1541,7 +1583,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -1549,6 +1591,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -1623,10 +1666,10 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,7 +1696,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1677,19 +1720,19 @@
     <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1698,7 +1741,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1719,7 +1762,7 @@
     <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1728,19 +1771,19 @@
     <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1842,10 +1885,10 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1869,13 +1912,13 @@
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1989,13 +2032,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2007,10 +2050,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2031,13 +2074,13 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2055,19 +2098,19 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2082,13 +2125,13 @@
     <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2100,13 +2143,13 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2139,22 +2182,22 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2169,7 +2212,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2181,16 +2224,16 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2205,22 +2248,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="7" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2238,10 +2281,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2302,55 +2345,56 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal 14" xfId="2"/>
-    <cellStyle name="Normal 15" xfId="3"/>
-    <cellStyle name="Normal 16" xfId="4"/>
-    <cellStyle name="Normal 17" xfId="5"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 2 2" xfId="7"/>
-    <cellStyle name="Normal 2 2 2" xfId="8"/>
-    <cellStyle name="Normal 2 3" xfId="9"/>
-    <cellStyle name="Normal 2 4" xfId="10"/>
-    <cellStyle name="Normal 2 5" xfId="11"/>
-    <cellStyle name="Normal 2 7" xfId="12"/>
-    <cellStyle name="Normal 2 8" xfId="13"/>
-    <cellStyle name="Normal 20" xfId="14"/>
-    <cellStyle name="Normal 21" xfId="15"/>
-    <cellStyle name="Normal 22" xfId="16"/>
-    <cellStyle name="Normal 23" xfId="17"/>
-    <cellStyle name="Normal 26" xfId="18"/>
-    <cellStyle name="Normal 28" xfId="19"/>
-    <cellStyle name="Normal 29" xfId="20"/>
-    <cellStyle name="Normal 3" xfId="21"/>
-    <cellStyle name="Normal 3 2" xfId="22"/>
-    <cellStyle name="Normal 3 2 2" xfId="23"/>
-    <cellStyle name="Normal 3 3" xfId="24"/>
-    <cellStyle name="Normal 3 4" xfId="25"/>
-    <cellStyle name="Normal 30" xfId="26"/>
-    <cellStyle name="Normal 31" xfId="27"/>
-    <cellStyle name="Normal 34" xfId="28"/>
-    <cellStyle name="Normal 35" xfId="29"/>
-    <cellStyle name="Normal 36" xfId="30"/>
-    <cellStyle name="Normal 37" xfId="31"/>
-    <cellStyle name="Normal 38" xfId="32"/>
-    <cellStyle name="Normal 39" xfId="33"/>
-    <cellStyle name="Normal 40" xfId="34"/>
-    <cellStyle name="Normal 41" xfId="35"/>
-    <cellStyle name="Normal 42" xfId="36"/>
-    <cellStyle name="Normal 44" xfId="37"/>
-    <cellStyle name="Normal 45" xfId="38"/>
-    <cellStyle name="Normal 46" xfId="39"/>
-    <cellStyle name="Normal 47" xfId="40"/>
-    <cellStyle name="Normal 48" xfId="41"/>
-    <cellStyle name="Normal 49" xfId="42"/>
-    <cellStyle name="Normal 5" xfId="43"/>
-    <cellStyle name="Normal 50" xfId="44"/>
-    <cellStyle name="Normal 52" xfId="45"/>
-    <cellStyle name="Normal 8" xfId="46"/>
-    <cellStyle name="Normal 9" xfId="47"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 14" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 15" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 16" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 17" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2 10" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 2 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 2 5" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 2 7" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 2 8" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 20" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 21" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 22" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 23" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 26" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 28" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 29" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 3 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 3 4" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 30" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 31" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 34" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 35" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 36" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 37" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 38" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 39" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 40" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 41" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 42" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 44" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 45" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 46" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 47" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 48" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 49" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 5" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 50" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 52" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 8" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 9" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2622,11 +2666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2693"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K2770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2671" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2694" sqref="A2694:IV2696"/>
+    <sheetView tabSelected="1" topLeftCell="A2749" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2771" sqref="A2771:XFD2775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9242,22 +9286,22 @@
     </row>
     <row r="331" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="123">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="B331" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="C331" s="7">
-        <v>34</v>
-      </c>
-      <c r="D331" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E331" s="1">
-        <v>43979</v>
-      </c>
-      <c r="F331" s="4" t="s">
-        <v>107</v>
+        <v>3</v>
+      </c>
+      <c r="C331" s="4">
+        <v>63</v>
+      </c>
+      <c r="D331" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E331" s="5">
+        <v>43985</v>
+      </c>
+      <c r="F331" s="124" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9802,19 +9846,19 @@
     </row>
     <row r="359" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="123">
-        <v>358</v>
+        <v>485</v>
       </c>
       <c r="B359" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C359" s="4">
-        <v>63</v>
-      </c>
-      <c r="D359" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C359" s="20">
+        <v>53</v>
+      </c>
+      <c r="D359" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E359" s="5">
-        <v>43985</v>
+      <c r="E359" s="42">
+        <v>43994</v>
       </c>
       <c r="F359" s="124" t="s">
         <v>2</v>
@@ -11861,22 +11905,22 @@
       </c>
     </row>
     <row r="462" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A462" s="123">
-        <v>461</v>
-      </c>
-      <c r="B462" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="C462" s="7">
-        <v>63</v>
-      </c>
-      <c r="D462" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E462" s="1">
-        <v>43988</v>
-      </c>
-      <c r="F462" s="124" t="s">
+      <c r="A462" s="182">
+        <v>2497</v>
+      </c>
+      <c r="B462" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C462" s="35">
+        <v>66</v>
+      </c>
+      <c r="D462" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E462" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F462" s="35" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12340,23 +12384,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A486" s="123">
-        <v>485</v>
-      </c>
-      <c r="B486" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="C486" s="20">
-        <v>53</v>
-      </c>
-      <c r="D486" s="20" t="s">
+    <row r="486" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="35">
+        <v>2625</v>
+      </c>
+      <c r="B486" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C486" s="235">
+        <v>84</v>
+      </c>
+      <c r="D486" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="E486" s="42">
-        <v>43994</v>
-      </c>
-      <c r="F486" s="124" t="s">
+      <c r="E486" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F486" s="35" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13842,22 +13886,22 @@
     </row>
     <row r="561" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A561" s="123">
-        <v>560</v>
+        <v>330</v>
       </c>
       <c r="B561" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C561" s="9">
-        <v>22</v>
+      <c r="C561" s="7">
+        <v>34</v>
       </c>
       <c r="D561" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E561" s="10">
-        <v>43997</v>
-      </c>
-      <c r="F561" s="124" t="s">
-        <v>2</v>
+      <c r="E561" s="1">
+        <v>43979</v>
+      </c>
+      <c r="F561" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="562" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36426,22 +36470,22 @@
       </c>
     </row>
     <row r="1690" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1690" s="182">
-        <v>1689</v>
-      </c>
-      <c r="B1690" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1690" s="35">
-        <v>59</v>
-      </c>
-      <c r="D1690" s="35" t="s">
+      <c r="A1690" s="123">
+        <v>461</v>
+      </c>
+      <c r="B1690" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1690" s="7">
+        <v>63</v>
+      </c>
+      <c r="D1690" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E1690" s="44">
-        <v>44005</v>
-      </c>
-      <c r="F1690" s="35" t="s">
+      <c r="E1690" s="1">
+        <v>43988</v>
+      </c>
+      <c r="F1690" s="124" t="s">
         <v>2</v>
       </c>
     </row>
@@ -36646,22 +36690,22 @@
       </c>
     </row>
     <row r="1701" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1701" s="182">
-        <v>1700</v>
-      </c>
-      <c r="B1701" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1701" s="35">
-        <v>75</v>
-      </c>
-      <c r="D1701" s="35" t="s">
+      <c r="A1701" s="123">
+        <v>560</v>
+      </c>
+      <c r="B1701" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1701" s="9">
+        <v>22</v>
+      </c>
+      <c r="D1701" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E1701" s="44">
-        <v>43973</v>
-      </c>
-      <c r="F1701" s="35" t="s">
+      <c r="E1701" s="10">
+        <v>43997</v>
+      </c>
+      <c r="F1701" s="124" t="s">
         <v>2</v>
       </c>
     </row>
@@ -47508,19 +47552,19 @@
     </row>
     <row r="2244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2244" s="182">
-        <v>2243</v>
-      </c>
-      <c r="B2244" s="35" t="s">
-        <v>3</v>
+        <v>1689</v>
+      </c>
+      <c r="B2244" s="51" t="s">
+        <v>0</v>
       </c>
       <c r="C2244" s="35">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D2244" s="35" t="s">
         <v>86</v>
       </c>
       <c r="E2244" s="44">
-        <v>44032</v>
+        <v>44005</v>
       </c>
       <c r="F2244" s="35" t="s">
         <v>2</v>
@@ -48568,19 +48612,19 @@
     </row>
     <row r="2297" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2297" s="182">
-        <v>2296</v>
-      </c>
-      <c r="B2297" s="35" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B2297" s="51" t="s">
         <v>0</v>
       </c>
       <c r="C2297" s="35">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D2297" s="35" t="s">
         <v>86</v>
       </c>
       <c r="E2297" s="44">
-        <v>44032</v>
+        <v>43973</v>
       </c>
       <c r="F2297" s="35" t="s">
         <v>2</v>
@@ -52588,19 +52632,19 @@
     </row>
     <row r="2498" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2498" s="182">
-        <v>2497</v>
+        <v>2243</v>
       </c>
       <c r="B2498" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C2498" s="35">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D2498" s="35" t="s">
-        <v>180</v>
+        <v>386</v>
       </c>
       <c r="E2498" s="44">
-        <v>44036</v>
+        <v>44032</v>
       </c>
       <c r="F2498" s="35" t="s">
         <v>2</v>
@@ -53877,7 +53921,7 @@
         <v>79</v>
       </c>
       <c r="D2562" s="233" t="s">
-        <v>401</v>
+        <v>197</v>
       </c>
       <c r="E2562" s="44">
         <v>44034</v>
@@ -54357,7 +54401,7 @@
         <v>58</v>
       </c>
       <c r="D2586" s="231" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E2586" s="44">
         <v>44037</v>
@@ -54417,7 +54461,7 @@
         <v>44</v>
       </c>
       <c r="D2589" s="230" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E2589" s="44">
         <v>44038</v>
@@ -55146,21 +55190,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2626" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2626" s="35">
-        <v>2625</v>
+    <row r="2626" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2626" s="182">
+        <v>2296</v>
       </c>
       <c r="B2626" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2626" s="235">
-        <v>84</v>
+        <v>0</v>
+      </c>
+      <c r="C2626" s="35">
+        <v>81</v>
       </c>
       <c r="D2626" s="35" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="E2626" s="44">
-        <v>44037</v>
+        <v>44032</v>
       </c>
       <c r="F2626" s="35" t="s">
         <v>2</v>
@@ -55177,7 +55221,7 @@
         <v>87</v>
       </c>
       <c r="D2627" s="35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E2627" s="44">
         <v>44037</v>
@@ -55297,7 +55341,7 @@
         <v>92</v>
       </c>
       <c r="D2633" s="35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E2633" s="44">
         <v>44035</v>
@@ -55377,7 +55421,7 @@
         <v>93</v>
       </c>
       <c r="D2637" s="35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E2637" s="44">
         <v>44037</v>
@@ -55477,7 +55521,7 @@
         <v>85</v>
       </c>
       <c r="D2642" s="35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2642" s="44">
         <v>44039</v>
@@ -56200,7 +56244,7 @@
         <v>4</v>
       </c>
       <c r="E2678" s="44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F2678" s="35" t="s">
         <v>6</v>
@@ -56220,7 +56264,7 @@
         <v>4</v>
       </c>
       <c r="E2679" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F2679" s="35" t="s">
         <v>6</v>
@@ -56240,7 +56284,7 @@
         <v>4</v>
       </c>
       <c r="E2680" s="44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F2680" s="35" t="s">
         <v>2</v>
@@ -56260,7 +56304,7 @@
         <v>4</v>
       </c>
       <c r="E2681" s="44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F2681" s="35" t="s">
         <v>2</v>
@@ -56280,7 +56324,7 @@
         <v>4</v>
       </c>
       <c r="E2682" s="44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F2682" s="35" t="s">
         <v>2</v>
@@ -56300,7 +56344,7 @@
         <v>4</v>
       </c>
       <c r="E2683" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F2683" s="35" t="s">
         <v>2</v>
@@ -56320,7 +56364,7 @@
         <v>4</v>
       </c>
       <c r="E2684" s="44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F2684" s="4" t="s">
         <v>107</v>
@@ -56340,7 +56384,7 @@
         <v>4</v>
       </c>
       <c r="E2685" s="44" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F2685" s="35" t="s">
         <v>2</v>
@@ -56360,7 +56404,7 @@
         <v>4</v>
       </c>
       <c r="E2686" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F2686" s="35" t="s">
         <v>2</v>
@@ -56380,7 +56424,7 @@
         <v>4</v>
       </c>
       <c r="E2687" s="44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F2687" s="35" t="s">
         <v>2</v>
@@ -56400,7 +56444,7 @@
         <v>4</v>
       </c>
       <c r="E2688" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F2688" s="35" t="s">
         <v>2</v>
@@ -56420,7 +56464,7 @@
         <v>4</v>
       </c>
       <c r="E2689" s="44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F2689" s="35" t="s">
         <v>2</v>
@@ -56440,7 +56484,7 @@
         <v>4</v>
       </c>
       <c r="E2690" s="44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F2690" s="35" t="s">
         <v>2</v>
@@ -56460,7 +56504,7 @@
         <v>4</v>
       </c>
       <c r="E2691" s="44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F2691" s="35" t="s">
         <v>2</v>
@@ -56480,7 +56524,7 @@
         <v>4</v>
       </c>
       <c r="E2692" s="44" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F2692" s="35" t="s">
         <v>2</v>
@@ -56500,15 +56544,1555 @@
         <v>4</v>
       </c>
       <c r="E2693" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2693" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2694" s="35">
+        <v>2693</v>
+      </c>
+      <c r="B2694" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2694" s="236">
+        <v>74</v>
+      </c>
+      <c r="D2694" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2694" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2694" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2695" s="35">
+        <v>2694</v>
+      </c>
+      <c r="B2695" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2695" s="236">
+        <v>73</v>
+      </c>
+      <c r="D2695" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2695" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2695" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2696" s="35">
+        <v>2695</v>
+      </c>
+      <c r="B2696" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2696" s="236">
+        <v>72</v>
+      </c>
+      <c r="D2696" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2696" s="44">
+        <v>44029</v>
+      </c>
+      <c r="F2696" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2697" s="35">
+        <v>2696</v>
+      </c>
+      <c r="B2697" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2697" s="236">
+        <v>67</v>
+      </c>
+      <c r="D2697" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="E2697" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2697" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2698" s="35">
+        <v>2697</v>
+      </c>
+      <c r="B2698" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2698" s="236">
+        <v>89</v>
+      </c>
+      <c r="D2698" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2698" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2698" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2699" s="35">
+        <v>2698</v>
+      </c>
+      <c r="B2699" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2699" s="236">
+        <v>80</v>
+      </c>
+      <c r="D2699" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="E2699" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="F2699" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2700" s="35">
+        <v>2699</v>
+      </c>
+      <c r="B2700" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2700" s="236">
+        <v>80</v>
+      </c>
+      <c r="D2700" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="E2700" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2700" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2701" s="35">
+        <v>2700</v>
+      </c>
+      <c r="B2701" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2701" s="236">
+        <v>94</v>
+      </c>
+      <c r="D2701" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2701" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2701" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2702" s="35">
+        <v>2701</v>
+      </c>
+      <c r="B2702" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2702" s="236">
+        <v>79</v>
+      </c>
+      <c r="D2702" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2702" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2702" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2703" s="35">
+        <v>2702</v>
+      </c>
+      <c r="B2703" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2703" s="236">
+        <v>83</v>
+      </c>
+      <c r="D2703" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2703" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2703" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2704" s="35">
+        <v>2703</v>
+      </c>
+      <c r="B2704" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2704" s="236">
+        <v>72</v>
+      </c>
+      <c r="D2704" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2704" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2704" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2705" s="35">
+        <v>2704</v>
+      </c>
+      <c r="B2705" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2705" s="236">
+        <v>92</v>
+      </c>
+      <c r="D2705" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2705" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2705" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2706" s="35">
+        <v>2705</v>
+      </c>
+      <c r="B2706" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2706" s="236">
+        <v>92</v>
+      </c>
+      <c r="D2706" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2706" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2706" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2707" s="35">
+        <v>2706</v>
+      </c>
+      <c r="B2707" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2707" s="236">
+        <v>75</v>
+      </c>
+      <c r="D2707" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2707" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2707" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2708" s="35">
+        <v>2707</v>
+      </c>
+      <c r="B2708" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2708" s="236">
+        <v>60</v>
+      </c>
+      <c r="D2708" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2708" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2708" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2709" s="35">
+        <v>2708</v>
+      </c>
+      <c r="B2709" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2709" s="236">
+        <v>84</v>
+      </c>
+      <c r="D2709" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2709" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2709" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2710" s="35">
+        <v>2709</v>
+      </c>
+      <c r="B2710" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2710" s="236">
+        <v>88</v>
+      </c>
+      <c r="D2710" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2710" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2710" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2711" s="35">
+        <v>2710</v>
+      </c>
+      <c r="B2711" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2711" s="236">
+        <v>87</v>
+      </c>
+      <c r="D2711" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2711" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2711" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2712" s="35">
+        <v>2711</v>
+      </c>
+      <c r="B2712" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2712" s="236">
+        <v>80</v>
+      </c>
+      <c r="D2712" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2712" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2712" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2713" s="35">
+        <v>2712</v>
+      </c>
+      <c r="B2713" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2713" s="236">
+        <v>61</v>
+      </c>
+      <c r="D2713" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2713" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2713" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2714" s="35">
+        <v>2713</v>
+      </c>
+      <c r="B2714" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2714" s="236">
+        <v>62</v>
+      </c>
+      <c r="D2714" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2714" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2714" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2715" s="35">
+        <v>2714</v>
+      </c>
+      <c r="B2715" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2715" s="236">
+        <v>68</v>
+      </c>
+      <c r="D2715" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="E2715" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2715" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2716" s="35">
+        <v>2715</v>
+      </c>
+      <c r="B2716" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2716" s="236">
+        <v>75</v>
+      </c>
+      <c r="D2716" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2716" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2716" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2717" s="35">
+        <v>2716</v>
+      </c>
+      <c r="B2717" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2717" s="236">
+        <v>87</v>
+      </c>
+      <c r="D2717" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2717" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2717" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2718" s="35">
+        <v>2717</v>
+      </c>
+      <c r="B2718" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2718" s="236">
+        <v>72</v>
+      </c>
+      <c r="D2718" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2718" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2718" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2719" s="35">
+        <v>2718</v>
+      </c>
+      <c r="B2719" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2719" s="236">
+        <v>81</v>
+      </c>
+      <c r="D2719" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2719" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2719" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2720" s="35">
+        <v>2719</v>
+      </c>
+      <c r="B2720" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2720" s="236">
+        <v>52</v>
+      </c>
+      <c r="D2720" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2720" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2720" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2721" s="35">
+        <v>2720</v>
+      </c>
+      <c r="B2721" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2721" s="236">
+        <v>63</v>
+      </c>
+      <c r="D2721" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2721" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2721" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2722" s="35">
+        <v>2721</v>
+      </c>
+      <c r="B2722" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2722" s="236">
+        <v>38</v>
+      </c>
+      <c r="D2722" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2722" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2722" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2723" s="35">
+        <v>2722</v>
+      </c>
+      <c r="B2723" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2723" s="236">
+        <v>80</v>
+      </c>
+      <c r="D2723" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2723" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2723" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2724" s="35">
+        <v>2723</v>
+      </c>
+      <c r="B2724" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2724" s="236">
+        <v>56</v>
+      </c>
+      <c r="D2724" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2724" s="44">
+        <v>44022</v>
+      </c>
+      <c r="F2724" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2725" s="35">
+        <v>2724</v>
+      </c>
+      <c r="B2725" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2725" s="236">
+        <v>70</v>
+      </c>
+      <c r="D2725" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2725" s="44">
+        <v>44029</v>
+      </c>
+      <c r="F2725" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2726" s="35">
+        <v>2725</v>
+      </c>
+      <c r="B2726" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2726" s="236">
+        <v>81</v>
+      </c>
+      <c r="D2726" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2726" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2726" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2727" s="35">
+        <v>2726</v>
+      </c>
+      <c r="B2727" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2727" s="236">
+        <v>77</v>
+      </c>
+      <c r="D2727" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2727" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2727" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2728" s="35">
+        <v>2727</v>
+      </c>
+      <c r="B2728" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2728" s="236">
+        <v>80</v>
+      </c>
+      <c r="D2728" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2728" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2728" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2729" s="35">
+        <v>2728</v>
+      </c>
+      <c r="B2729" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2729" s="236">
+        <v>23</v>
+      </c>
+      <c r="D2729" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2729" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2729" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2730" s="35">
+        <v>2729</v>
+      </c>
+      <c r="B2730" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2730" s="236">
+        <v>89</v>
+      </c>
+      <c r="D2730" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2730" s="44">
+        <v>44030</v>
+      </c>
+      <c r="F2730" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2731" s="35">
+        <v>2730</v>
+      </c>
+      <c r="B2731" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2731" s="236">
+        <v>53</v>
+      </c>
+      <c r="D2731" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2731" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2731" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2732" s="35">
+        <v>2731</v>
+      </c>
+      <c r="B2732" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2732" s="236">
+        <v>76</v>
+      </c>
+      <c r="D2732" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2732" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2732" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2733" s="35">
+        <v>2732</v>
+      </c>
+      <c r="B2733" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2733" s="236">
+        <v>89</v>
+      </c>
+      <c r="D2733" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2733" s="44">
+        <v>44027</v>
+      </c>
+      <c r="F2733" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2734" s="35">
+        <v>2733</v>
+      </c>
+      <c r="B2734" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2734" s="236">
+        <v>89</v>
+      </c>
+      <c r="D2734" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2734" s="44">
+        <v>44029</v>
+      </c>
+      <c r="F2734" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2735" s="35">
+        <v>2734</v>
+      </c>
+      <c r="B2735" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2735" s="236">
+        <v>93</v>
+      </c>
+      <c r="D2735" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2735" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2735" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2736" s="35">
+        <v>2735</v>
+      </c>
+      <c r="B2736" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2736" s="236">
+        <v>90</v>
+      </c>
+      <c r="D2736" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2736" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2736" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2737" s="35">
+        <v>2736</v>
+      </c>
+      <c r="B2737" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2737" s="236">
+        <v>89</v>
+      </c>
+      <c r="D2737" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2737" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2737" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2738" s="35">
+        <v>2737</v>
+      </c>
+      <c r="B2738" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2738" s="236">
+        <v>85</v>
+      </c>
+      <c r="D2738" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2738" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2738" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2739" s="35">
+        <v>2738</v>
+      </c>
+      <c r="B2739" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2739" s="236">
+        <v>56</v>
+      </c>
+      <c r="D2739" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2739" s="44">
+        <v>44035</v>
+      </c>
+      <c r="F2739" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2740" s="35">
+        <v>2739</v>
+      </c>
+      <c r="B2740" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2740" s="236">
+        <v>75</v>
+      </c>
+      <c r="D2740" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2740" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2740" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2741" s="35">
+        <v>2740</v>
+      </c>
+      <c r="B2741" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2741" s="236">
+        <v>49</v>
+      </c>
+      <c r="D2741" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2741" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2741" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2742" s="35">
+        <v>2741</v>
+      </c>
+      <c r="B2742" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2742" s="236">
+        <v>75</v>
+      </c>
+      <c r="D2742" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2742" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="F2742" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2743" s="35">
+        <v>2742</v>
+      </c>
+      <c r="B2743" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2743" s="236">
+        <v>75</v>
+      </c>
+      <c r="D2743" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2743" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2743" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2744" s="35">
+        <v>2743</v>
+      </c>
+      <c r="B2744" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2744" s="236">
+        <v>57</v>
+      </c>
+      <c r="D2744" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2744" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="F2744" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2745" s="35">
+        <v>2744</v>
+      </c>
+      <c r="B2745" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2745" s="236">
+        <v>57</v>
+      </c>
+      <c r="D2745" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2745" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="F2745" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2746" s="35">
+        <v>2745</v>
+      </c>
+      <c r="B2746" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2746" s="236">
+        <v>84</v>
+      </c>
+      <c r="D2746" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2746" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2746" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2747" s="35">
+        <v>2746</v>
+      </c>
+      <c r="B2747" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2747" s="236">
+        <v>81</v>
+      </c>
+      <c r="D2747" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2747" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="F2693" s="35" t="s">
+      <c r="F2747" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2748" s="35">
+        <v>2747</v>
+      </c>
+      <c r="B2748" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2748" s="236">
+        <v>70</v>
+      </c>
+      <c r="D2748" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2748" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2748" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2749" s="35">
+        <v>2748</v>
+      </c>
+      <c r="B2749" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2749" s="236">
+        <v>80</v>
+      </c>
+      <c r="D2749" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2749" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2749" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2750" s="35">
+        <v>2749</v>
+      </c>
+      <c r="B2750" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2750" s="236">
+        <v>86</v>
+      </c>
+      <c r="D2750" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2750" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2750" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2751" s="35">
+        <v>2750</v>
+      </c>
+      <c r="B2751" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2751" s="236">
+        <v>76</v>
+      </c>
+      <c r="D2751" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2751" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="F2751" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2752" s="35">
+        <v>2751</v>
+      </c>
+      <c r="B2752" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2752" s="236">
+        <v>78</v>
+      </c>
+      <c r="D2752" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2752" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2752" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2753" s="35">
+        <v>2752</v>
+      </c>
+      <c r="B2753" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2753" s="236">
+        <v>80</v>
+      </c>
+      <c r="D2753" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2753" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="F2753" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2754" s="35">
+        <v>2753</v>
+      </c>
+      <c r="B2754" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2754" s="236">
+        <v>71</v>
+      </c>
+      <c r="D2754" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2754" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2754" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2755" s="35">
+        <v>2754</v>
+      </c>
+      <c r="B2755" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2755" s="236">
+        <v>83</v>
+      </c>
+      <c r="D2755" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2755" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2755" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2756" s="35">
+        <v>2755</v>
+      </c>
+      <c r="B2756" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2756" s="236">
+        <v>92</v>
+      </c>
+      <c r="D2756" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2756" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2756" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2757" s="35">
+        <v>2756</v>
+      </c>
+      <c r="B2757" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2757" s="236">
+        <v>95</v>
+      </c>
+      <c r="D2757" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2757" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="F2757" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2758" s="35">
+        <v>2757</v>
+      </c>
+      <c r="B2758" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2758" s="236">
+        <v>59</v>
+      </c>
+      <c r="D2758" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2758" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2758" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2759" s="35">
+        <v>2758</v>
+      </c>
+      <c r="B2759" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2759" s="236">
+        <v>80</v>
+      </c>
+      <c r="D2759" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2759" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2759" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2760" s="35">
+        <v>2759</v>
+      </c>
+      <c r="B2760" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2760" s="236">
+        <v>71</v>
+      </c>
+      <c r="D2760" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2760" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2760" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2761" s="35">
+        <v>2760</v>
+      </c>
+      <c r="B2761" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2761" s="236">
+        <v>68</v>
+      </c>
+      <c r="D2761" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2761" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2761" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2762" s="35">
+        <v>2761</v>
+      </c>
+      <c r="B2762" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2762" s="236">
+        <v>67</v>
+      </c>
+      <c r="D2762" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2762" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2762" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2763" s="35">
+        <v>2762</v>
+      </c>
+      <c r="B2763" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2763" s="236">
+        <v>97</v>
+      </c>
+      <c r="D2763" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2763" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="F2763" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2764" s="35">
+        <v>2763</v>
+      </c>
+      <c r="B2764" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2764" s="236">
+        <v>89</v>
+      </c>
+      <c r="D2764" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2764" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="F2764" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2765" s="35">
+        <v>2764</v>
+      </c>
+      <c r="B2765" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2765" s="236">
+        <v>82</v>
+      </c>
+      <c r="D2765" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2765" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2765" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2766" s="35">
+        <v>2765</v>
+      </c>
+      <c r="B2766" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2766" s="236">
+        <v>51</v>
+      </c>
+      <c r="D2766" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2766" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="F2766" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2767" s="35">
+        <v>2766</v>
+      </c>
+      <c r="B2767" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2767" s="236">
+        <v>57</v>
+      </c>
+      <c r="D2767" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2767" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2767" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2768" s="35">
+        <v>2767</v>
+      </c>
+      <c r="B2768" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2768" s="236">
+        <v>58</v>
+      </c>
+      <c r="D2768" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2768" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="F2768" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2769" s="35">
+        <v>2768</v>
+      </c>
+      <c r="B2769" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2769" s="236">
+        <v>38</v>
+      </c>
+      <c r="D2769" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2769" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2769" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2770" s="35">
+        <v>2769</v>
+      </c>
+      <c r="B2770" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2770" s="236">
+        <v>76</v>
+      </c>
+      <c r="D2770" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2770" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2770" s="35" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data-raw/OBITOS_CONF_COVID-19_MG.xlsx
+++ b/data-raw/OBITOS_CONF_COVID-19_MG.xlsx
@@ -8,30 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjunior/Local/github/dados-mg/ckan/obitos-confirmados-covid-19/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E906B0-3B81-9440-9CBF-C40877818F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56534375-391B-3346-93F7-2ADAFE6850A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Óbitos_COVID-19_MG" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Óbitos_COVID-19_MG'!$A$1:$F$2770</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Óbitos_COVID-19_MG'!$A$1:$F$2862</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8360" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8662" uniqueCount="438">
   <si>
     <t>M</t>
   </si>
@@ -1318,6 +1310,33 @@
   </si>
   <si>
     <t>Nova Módica</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Porto Firme</t>
+  </si>
+  <si>
+    <t>Alpercata</t>
+  </si>
+  <si>
+    <t>Frei Inocêncio</t>
+  </si>
+  <si>
+    <t>Vermelho Novo</t>
+  </si>
+  <si>
+    <t>Santa Rita De Caldas</t>
+  </si>
+  <si>
+    <t>30/07/2020</t>
+  </si>
+  <si>
+    <t>29/07/2020</t>
   </si>
 </sst>
 </file>
@@ -2667,11 +2686,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2770"/>
+  <dimension ref="A1:K2862"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2749" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2771" sqref="A2771:XFD2775"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -58090,6 +58107,1846 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2771" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2771" s="35">
+        <v>2770</v>
+      </c>
+      <c r="B2771" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2771" s="35">
+        <v>78</v>
+      </c>
+      <c r="D2771" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2771" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2771" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2772" s="35">
+        <v>2771</v>
+      </c>
+      <c r="B2772" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2772" s="35">
+        <v>74</v>
+      </c>
+      <c r="D2772" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2772" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2772" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2773" s="35">
+        <v>2772</v>
+      </c>
+      <c r="B2773" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2773" s="35">
+        <v>74</v>
+      </c>
+      <c r="D2773" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="E2773" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2773" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2774" s="35">
+        <v>2773</v>
+      </c>
+      <c r="B2774" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2774" s="35">
+        <v>61</v>
+      </c>
+      <c r="D2774" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2774" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2774" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2775" s="35">
+        <v>2774</v>
+      </c>
+      <c r="B2775" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2775" s="35">
+        <v>64</v>
+      </c>
+      <c r="D2775" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2775" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2775" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2776" s="35">
+        <v>2775</v>
+      </c>
+      <c r="B2776" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2776" s="35">
+        <v>89</v>
+      </c>
+      <c r="D2776" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2776" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2776" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2777" s="35">
+        <v>2776</v>
+      </c>
+      <c r="B2777" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2777" s="35">
+        <v>45</v>
+      </c>
+      <c r="D2777" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2777" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2777" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2778" s="35">
+        <v>2777</v>
+      </c>
+      <c r="B2778" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2778" s="35">
+        <v>74</v>
+      </c>
+      <c r="D2778" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2778" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2778" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2779" s="35">
+        <v>2778</v>
+      </c>
+      <c r="B2779" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2779" s="35">
+        <v>70</v>
+      </c>
+      <c r="D2779" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2779" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2779" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2780" s="35">
+        <v>2779</v>
+      </c>
+      <c r="B2780" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2780" s="35">
+        <v>48</v>
+      </c>
+      <c r="D2780" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2780" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2780" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2781" s="35">
+        <v>2780</v>
+      </c>
+      <c r="B2781" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2781" s="35">
+        <v>62</v>
+      </c>
+      <c r="D2781" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2781" s="44">
+        <v>44032</v>
+      </c>
+      <c r="F2781" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2782" s="35">
+        <v>2781</v>
+      </c>
+      <c r="B2782" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2782" s="35">
+        <v>57</v>
+      </c>
+      <c r="D2782" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2782" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2782" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2783" s="35">
+        <v>2782</v>
+      </c>
+      <c r="B2783" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2783" s="35">
+        <v>74</v>
+      </c>
+      <c r="D2783" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2783" s="44">
+        <v>44018</v>
+      </c>
+      <c r="F2783" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2784" s="35">
+        <v>2783</v>
+      </c>
+      <c r="B2784" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2784" s="35">
+        <v>66</v>
+      </c>
+      <c r="D2784" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2784" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2784" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2785" s="35">
+        <v>2784</v>
+      </c>
+      <c r="B2785" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2785" s="35">
+        <v>40</v>
+      </c>
+      <c r="D2785" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2785" s="44">
+        <v>44029</v>
+      </c>
+      <c r="F2785" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2786" s="35">
+        <v>2785</v>
+      </c>
+      <c r="B2786" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2786" s="35">
+        <v>72</v>
+      </c>
+      <c r="D2786" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="E2786" s="44">
+        <v>44018</v>
+      </c>
+      <c r="F2786" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2787" s="35">
+        <v>2786</v>
+      </c>
+      <c r="B2787" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2787" s="35">
+        <v>78</v>
+      </c>
+      <c r="D2787" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2787" s="44">
+        <v>44026</v>
+      </c>
+      <c r="F2787" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2788" s="35">
+        <v>2787</v>
+      </c>
+      <c r="B2788" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2788" s="35">
+        <v>46</v>
+      </c>
+      <c r="D2788" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2788" s="44">
+        <v>44025</v>
+      </c>
+      <c r="F2788" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2789" s="35">
+        <v>2788</v>
+      </c>
+      <c r="B2789" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2789" s="35">
+        <v>64</v>
+      </c>
+      <c r="D2789" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2789" s="44">
+        <v>44022</v>
+      </c>
+      <c r="F2789" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2790" s="35">
+        <v>2789</v>
+      </c>
+      <c r="B2790" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2790" s="35">
+        <v>71</v>
+      </c>
+      <c r="D2790" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2790" s="44">
+        <v>44027</v>
+      </c>
+      <c r="F2790" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2791" s="35">
+        <v>2790</v>
+      </c>
+      <c r="B2791" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2791" s="35">
+        <v>50</v>
+      </c>
+      <c r="D2791" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2791" s="44">
+        <v>44023</v>
+      </c>
+      <c r="F2791" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2792" s="35">
+        <v>2791</v>
+      </c>
+      <c r="B2792" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2792" s="35">
+        <v>63</v>
+      </c>
+      <c r="D2792" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2792" s="44">
+        <v>44025</v>
+      </c>
+      <c r="F2792" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2793" s="35">
+        <v>2792</v>
+      </c>
+      <c r="B2793" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2793" s="35">
+        <v>69</v>
+      </c>
+      <c r="D2793" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2793" s="44">
+        <v>44031</v>
+      </c>
+      <c r="F2793" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2794" s="35">
+        <v>2793</v>
+      </c>
+      <c r="B2794" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2794" s="35">
+        <v>83</v>
+      </c>
+      <c r="D2794" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2794" s="44">
+        <v>44025</v>
+      </c>
+      <c r="F2794" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2795" s="35">
+        <v>2794</v>
+      </c>
+      <c r="B2795" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2795" s="35">
+        <v>86</v>
+      </c>
+      <c r="D2795" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2795" s="44">
+        <v>44017</v>
+      </c>
+      <c r="F2795" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2796" s="35">
+        <v>2795</v>
+      </c>
+      <c r="B2796" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2796" s="35">
+        <v>77</v>
+      </c>
+      <c r="D2796" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2796" s="44">
+        <v>44017</v>
+      </c>
+      <c r="F2796" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2797" s="35">
+        <v>2796</v>
+      </c>
+      <c r="B2797" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2797" s="35">
+        <v>86</v>
+      </c>
+      <c r="D2797" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2797" s="44">
+        <v>44026</v>
+      </c>
+      <c r="F2797" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2798" s="35">
+        <v>2797</v>
+      </c>
+      <c r="B2798" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2798" s="35">
+        <v>63</v>
+      </c>
+      <c r="D2798" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2798" s="44">
+        <v>44016</v>
+      </c>
+      <c r="F2798" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2799" s="35">
+        <v>2798</v>
+      </c>
+      <c r="B2799" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2799" s="35">
+        <v>70</v>
+      </c>
+      <c r="D2799" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2799" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2799" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2800" s="35">
+        <v>2799</v>
+      </c>
+      <c r="B2800" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2800" s="35">
+        <v>86</v>
+      </c>
+      <c r="D2800" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2800" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2800" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2801" s="35">
+        <v>2800</v>
+      </c>
+      <c r="B2801" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2801" s="35">
+        <v>73</v>
+      </c>
+      <c r="D2801" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2801" s="44">
+        <v>44019</v>
+      </c>
+      <c r="F2801" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2802" s="35">
+        <v>2801</v>
+      </c>
+      <c r="B2802" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2802" s="35">
+        <v>86</v>
+      </c>
+      <c r="D2802" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2802" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2802" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2803" s="35">
+        <v>2802</v>
+      </c>
+      <c r="B2803" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2803" s="35">
+        <v>69</v>
+      </c>
+      <c r="D2803" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2803" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2803" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2804" s="35">
+        <v>2803</v>
+      </c>
+      <c r="B2804" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2804" s="35">
+        <v>57</v>
+      </c>
+      <c r="D2804" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2804" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2804" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2805" s="35">
+        <v>2804</v>
+      </c>
+      <c r="B2805" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2805" s="35">
+        <v>71</v>
+      </c>
+      <c r="D2805" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2805" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2805" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2806" s="35">
+        <v>2805</v>
+      </c>
+      <c r="B2806" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2806" s="35">
+        <v>32</v>
+      </c>
+      <c r="D2806" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2806" s="44">
+        <v>44018</v>
+      </c>
+      <c r="F2806" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2807" s="35">
+        <v>2806</v>
+      </c>
+      <c r="B2807" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2807" s="35">
+        <v>84</v>
+      </c>
+      <c r="D2807" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2807" s="44">
+        <v>44029</v>
+      </c>
+      <c r="F2807" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2808" s="35">
+        <v>2807</v>
+      </c>
+      <c r="B2808" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2808" s="35">
+        <v>84</v>
+      </c>
+      <c r="D2808" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2808" s="44">
+        <v>44030</v>
+      </c>
+      <c r="F2808" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2809" s="35">
+        <v>2808</v>
+      </c>
+      <c r="B2809" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2809" s="35">
+        <v>88</v>
+      </c>
+      <c r="D2809" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2809" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2809" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2810" s="35">
+        <v>2809</v>
+      </c>
+      <c r="B2810" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2810" s="35">
+        <v>68</v>
+      </c>
+      <c r="D2810" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2810" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2810" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2811" s="35">
+        <v>2810</v>
+      </c>
+      <c r="B2811" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2811" s="35">
+        <v>88</v>
+      </c>
+      <c r="D2811" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2811" s="44">
+        <v>44031</v>
+      </c>
+      <c r="F2811" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2812" s="35">
+        <v>2811</v>
+      </c>
+      <c r="B2812" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2812" s="35">
+        <v>62</v>
+      </c>
+      <c r="D2812" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2812" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2812" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2813" s="35">
+        <v>2812</v>
+      </c>
+      <c r="B2813" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2813" s="35">
+        <v>75</v>
+      </c>
+      <c r="D2813" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2813" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2813" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2814" s="35">
+        <v>2813</v>
+      </c>
+      <c r="B2814" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2814" s="35">
+        <v>86</v>
+      </c>
+      <c r="D2814" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2814" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2814" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2815" s="35">
+        <v>2814</v>
+      </c>
+      <c r="B2815" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2815" s="35">
+        <v>80</v>
+      </c>
+      <c r="D2815" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2815" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2815" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2816" s="35">
+        <v>2815</v>
+      </c>
+      <c r="B2816" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2816" s="35">
+        <v>76</v>
+      </c>
+      <c r="D2816" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2816" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2816" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2817" s="35">
+        <v>2816</v>
+      </c>
+      <c r="B2817" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2817" s="35">
+        <v>78</v>
+      </c>
+      <c r="D2817" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2817" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2817" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2818" s="35">
+        <v>2817</v>
+      </c>
+      <c r="B2818" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2818" s="35">
+        <v>80</v>
+      </c>
+      <c r="D2818" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2818" s="44">
+        <v>44038</v>
+      </c>
+      <c r="F2818" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2819" s="35">
+        <v>2818</v>
+      </c>
+      <c r="B2819" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2819" s="35">
+        <v>64</v>
+      </c>
+      <c r="D2819" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2819" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2819" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2820" s="35">
+        <v>2819</v>
+      </c>
+      <c r="B2820" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2820" s="35">
+        <v>77</v>
+      </c>
+      <c r="D2820" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2820" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2820" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2821" s="35">
+        <v>2820</v>
+      </c>
+      <c r="B2821" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2821" s="35">
+        <v>84</v>
+      </c>
+      <c r="D2821" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2821" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2821" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2822" s="35">
+        <v>2821</v>
+      </c>
+      <c r="B2822" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2822" s="35">
+        <v>70</v>
+      </c>
+      <c r="D2822" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2822" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2822" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2823" s="35">
+        <v>2822</v>
+      </c>
+      <c r="B2823" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2823" s="35">
+        <v>72</v>
+      </c>
+      <c r="D2823" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2823" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2823" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2824" s="35">
+        <v>2823</v>
+      </c>
+      <c r="B2824" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2824" s="35">
+        <v>87</v>
+      </c>
+      <c r="D2824" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2824" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2824" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2825" s="35">
+        <v>2824</v>
+      </c>
+      <c r="B2825" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2825" s="35">
+        <v>55</v>
+      </c>
+      <c r="D2825" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2825" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2825" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2826" s="35">
+        <v>2825</v>
+      </c>
+      <c r="B2826" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2826" s="35">
+        <v>78</v>
+      </c>
+      <c r="D2826" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2826" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2826" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2827" s="35">
+        <v>2826</v>
+      </c>
+      <c r="B2827" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2827" s="35">
+        <v>86</v>
+      </c>
+      <c r="D2827" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2827" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2827" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2828" s="35">
+        <v>2827</v>
+      </c>
+      <c r="B2828" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2828" s="35">
+        <v>67</v>
+      </c>
+      <c r="D2828" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2828" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2828" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2829" s="35">
+        <v>2828</v>
+      </c>
+      <c r="B2829" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2829" s="35">
+        <v>55</v>
+      </c>
+      <c r="D2829" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2829" s="44">
+        <v>43972</v>
+      </c>
+      <c r="F2829" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2830" s="35">
+        <v>2829</v>
+      </c>
+      <c r="B2830" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2830" s="35">
+        <v>67</v>
+      </c>
+      <c r="D2830" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2830" s="44">
+        <v>44003</v>
+      </c>
+      <c r="F2830" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2831" s="35">
+        <v>2830</v>
+      </c>
+      <c r="B2831" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2831" s="35">
+        <v>61</v>
+      </c>
+      <c r="D2831" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2831" s="44">
+        <v>43997</v>
+      </c>
+      <c r="F2831" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2832" s="35">
+        <v>2831</v>
+      </c>
+      <c r="B2832" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2832" s="35">
+        <v>60</v>
+      </c>
+      <c r="D2832" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2832" s="44">
+        <v>44036</v>
+      </c>
+      <c r="F2832" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2833" s="35">
+        <v>2832</v>
+      </c>
+      <c r="B2833" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2833" s="35">
+        <v>62</v>
+      </c>
+      <c r="D2833" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2833" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2833" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2834" s="35">
+        <v>2833</v>
+      </c>
+      <c r="B2834" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2834" s="35">
+        <v>84</v>
+      </c>
+      <c r="D2834" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2834" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2834" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2835" s="35">
+        <v>2834</v>
+      </c>
+      <c r="B2835" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2835" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2835" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2835" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="F2835" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2836" s="35">
+        <v>2835</v>
+      </c>
+      <c r="B2836" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2836" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="D2836" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2836" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2836" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2837" s="35">
+        <v>2836</v>
+      </c>
+      <c r="B2837" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2837" s="229">
+        <v>84</v>
+      </c>
+      <c r="D2837" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2837" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2837" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2838" s="35">
+        <v>2837</v>
+      </c>
+      <c r="B2838" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2838" s="229">
+        <v>70</v>
+      </c>
+      <c r="D2838" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2838" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2838" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2839" s="35">
+        <v>2838</v>
+      </c>
+      <c r="B2839" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2839" s="229">
+        <v>88</v>
+      </c>
+      <c r="D2839" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2839" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2839" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2840" s="35">
+        <v>2839</v>
+      </c>
+      <c r="B2840" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2840" s="229">
+        <v>80</v>
+      </c>
+      <c r="D2840" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2840" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2840" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2841" s="35">
+        <v>2840</v>
+      </c>
+      <c r="B2841" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2841" s="229">
+        <v>55</v>
+      </c>
+      <c r="D2841" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2841" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2841" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2842" s="35">
+        <v>2841</v>
+      </c>
+      <c r="B2842" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2842" s="229">
+        <v>68</v>
+      </c>
+      <c r="D2842" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2842" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="F2842" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2843" s="35">
+        <v>2842</v>
+      </c>
+      <c r="B2843" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2843" s="229">
+        <v>60</v>
+      </c>
+      <c r="D2843" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2843" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2843" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2844" s="35">
+        <v>2843</v>
+      </c>
+      <c r="B2844" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2844" s="229">
+        <v>47</v>
+      </c>
+      <c r="D2844" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2844" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="F2844" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2845" s="35">
+        <v>2844</v>
+      </c>
+      <c r="B2845" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2845" s="229">
+        <v>80</v>
+      </c>
+      <c r="D2845" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2845" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="F2845" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2846" s="35">
+        <v>2845</v>
+      </c>
+      <c r="B2846" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2846" s="229">
+        <v>75</v>
+      </c>
+      <c r="D2846" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2846" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="F2846" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2847" s="35">
+        <v>2846</v>
+      </c>
+      <c r="B2847" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2847" s="229">
+        <v>87</v>
+      </c>
+      <c r="D2847" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2847" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="F2847" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2848" s="35">
+        <v>2847</v>
+      </c>
+      <c r="B2848" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2848" s="229">
+        <v>71</v>
+      </c>
+      <c r="D2848" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2848" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2848" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2849" s="35">
+        <v>2848</v>
+      </c>
+      <c r="B2849" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2849" s="229">
+        <v>87</v>
+      </c>
+      <c r="D2849" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2849" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2849" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2850" s="35">
+        <v>2849</v>
+      </c>
+      <c r="B2850" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2850" s="229">
+        <v>67</v>
+      </c>
+      <c r="D2850" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2850" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="F2850" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2851" s="35">
+        <v>2850</v>
+      </c>
+      <c r="B2851" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2851" s="229">
+        <v>72</v>
+      </c>
+      <c r="D2851" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2851" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2851" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2852" s="35">
+        <v>2851</v>
+      </c>
+      <c r="B2852" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2852" s="229">
+        <v>69</v>
+      </c>
+      <c r="D2852" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2852" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="F2852" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2853" s="35">
+        <v>2852</v>
+      </c>
+      <c r="B2853" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2853" s="229">
+        <v>70</v>
+      </c>
+      <c r="D2853" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2853" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2853" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2854" s="35">
+        <v>2853</v>
+      </c>
+      <c r="B2854" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2854" s="229">
+        <v>76</v>
+      </c>
+      <c r="D2854" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2854" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2854" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2855" s="35">
+        <v>2854</v>
+      </c>
+      <c r="B2855" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2855" s="229">
+        <v>65</v>
+      </c>
+      <c r="D2855" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2855" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="F2855" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2856" s="35">
+        <v>2855</v>
+      </c>
+      <c r="B2856" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2856" s="229">
+        <v>59</v>
+      </c>
+      <c r="D2856" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2856" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="F2856" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2857" s="35">
+        <v>2856</v>
+      </c>
+      <c r="B2857" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2857" s="229">
+        <v>55</v>
+      </c>
+      <c r="D2857" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2857" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="F2857" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2858" s="35">
+        <v>2857</v>
+      </c>
+      <c r="B2858" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2858" s="229">
+        <v>64</v>
+      </c>
+      <c r="D2858" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2858" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="F2858" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2859" s="35">
+        <v>2858</v>
+      </c>
+      <c r="B2859" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2859" s="35">
+        <v>73</v>
+      </c>
+      <c r="D2859" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2859" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2859" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2860" s="35">
+        <v>2859</v>
+      </c>
+      <c r="B2860" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2860" s="35">
+        <v>63</v>
+      </c>
+      <c r="D2860" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2860" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2860" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2861" s="35">
+        <v>2860</v>
+      </c>
+      <c r="B2861" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2861" s="35">
+        <v>85</v>
+      </c>
+      <c r="D2861" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2861" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2861" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2862" s="35">
+        <v>2861</v>
+      </c>
+      <c r="B2862" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2862" s="35">
+        <v>78</v>
+      </c>
+      <c r="D2862" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2862" s="44">
+        <v>44043</v>
+      </c>
+      <c r="F2862" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data-raw/OBITOS_CONF_COVID-19_MG.xlsx
+++ b/data-raw/OBITOS_CONF_COVID-19_MG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjunior/Local/github/dados-mg/ckan/obitos-confirmados-covid-19/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56534375-391B-3346-93F7-2ADAFE6850A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA57888-C426-5248-BD30-FEB0165139C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Óbitos_COVID-19_MG'!$A$1:$F$2862</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8662" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8752" uniqueCount="443">
   <si>
     <t>M</t>
   </si>
@@ -1337,6 +1337,21 @@
   </si>
   <si>
     <t>29/07/2020</t>
+  </si>
+  <si>
+    <t>Fronteira</t>
+  </si>
+  <si>
+    <t>Ibiraci</t>
+  </si>
+  <si>
+    <t>Delfinópolis</t>
+  </si>
+  <si>
+    <t>Guapé</t>
+  </si>
+  <si>
+    <t>Não informado</t>
   </si>
 </sst>
 </file>
@@ -2686,9 +2701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2862"/>
+  <dimension ref="A1:K2892"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2852" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2892" sqref="A2892"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -59947,6 +59964,606 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2863" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2863" s="35">
+        <v>2862</v>
+      </c>
+      <c r="B2863" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2863" s="35">
+        <v>71</v>
+      </c>
+      <c r="D2863" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2863" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2863" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2864" s="35">
+        <v>2863</v>
+      </c>
+      <c r="B2864" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2864" s="35">
+        <v>67</v>
+      </c>
+      <c r="D2864" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2864" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2864" s="35" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2865" s="35">
+        <v>2864</v>
+      </c>
+      <c r="B2865" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2865" s="35">
+        <v>88</v>
+      </c>
+      <c r="D2865" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2865" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2865" s="35" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2866" s="35">
+        <v>2865</v>
+      </c>
+      <c r="B2866" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2866" s="35">
+        <v>95</v>
+      </c>
+      <c r="D2866" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2866" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2866" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2867" s="35">
+        <v>2866</v>
+      </c>
+      <c r="B2867" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2867" s="35">
+        <v>64</v>
+      </c>
+      <c r="D2867" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2867" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2867" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2868" s="35">
+        <v>2867</v>
+      </c>
+      <c r="B2868" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2868" s="35">
+        <v>58</v>
+      </c>
+      <c r="D2868" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2868" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2868" s="35" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2869" s="35">
+        <v>2868</v>
+      </c>
+      <c r="B2869" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2869" s="35">
+        <v>70</v>
+      </c>
+      <c r="D2869" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2869" s="44">
+        <v>44043</v>
+      </c>
+      <c r="F2869" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2870" s="35">
+        <v>2869</v>
+      </c>
+      <c r="B2870" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2870" s="35">
+        <v>65</v>
+      </c>
+      <c r="D2870" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2870" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2870" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2871" s="35">
+        <v>2870</v>
+      </c>
+      <c r="B2871" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2871" s="35">
+        <v>91</v>
+      </c>
+      <c r="D2871" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2871" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2871" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2872" s="35">
+        <v>2871</v>
+      </c>
+      <c r="B2872" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2872" s="35">
+        <v>53</v>
+      </c>
+      <c r="D2872" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2872" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2872" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2873" s="35">
+        <v>2872</v>
+      </c>
+      <c r="B2873" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2873" s="35">
+        <v>75</v>
+      </c>
+      <c r="D2873" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2873" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2873" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2874" s="35">
+        <v>2873</v>
+      </c>
+      <c r="B2874" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2874" s="35">
+        <v>80</v>
+      </c>
+      <c r="D2874" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2874" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2874" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2875" s="35">
+        <v>2874</v>
+      </c>
+      <c r="B2875" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2875" s="35">
+        <v>66</v>
+      </c>
+      <c r="D2875" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2875" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2875" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2876" s="35">
+        <v>2875</v>
+      </c>
+      <c r="B2876" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2876" s="35">
+        <v>93</v>
+      </c>
+      <c r="D2876" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2876" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2876" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2877" s="35">
+        <v>2876</v>
+      </c>
+      <c r="B2877" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2877" s="35">
+        <v>52</v>
+      </c>
+      <c r="D2877" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2877" s="44">
+        <v>44030</v>
+      </c>
+      <c r="F2877" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2878" s="35">
+        <v>2877</v>
+      </c>
+      <c r="B2878" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2878" s="35">
+        <v>62</v>
+      </c>
+      <c r="D2878" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2878" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2878" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2879" s="35">
+        <v>2878</v>
+      </c>
+      <c r="B2879" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2879" s="35">
+        <v>68</v>
+      </c>
+      <c r="D2879" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="E2879" s="44">
+        <v>44037</v>
+      </c>
+      <c r="F2879" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2880" s="35">
+        <v>2879</v>
+      </c>
+      <c r="B2880" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2880" s="35">
+        <v>76</v>
+      </c>
+      <c r="D2880" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2880" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2880" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2881" s="35">
+        <v>2880</v>
+      </c>
+      <c r="B2881" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2881" s="35">
+        <v>83</v>
+      </c>
+      <c r="D2881" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2881" s="44">
+        <v>44043</v>
+      </c>
+      <c r="F2881" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2882" s="35">
+        <v>2881</v>
+      </c>
+      <c r="B2882" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2882" s="35">
+        <v>83</v>
+      </c>
+      <c r="D2882" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="E2882" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2882" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2883" s="35">
+        <v>2882</v>
+      </c>
+      <c r="B2883" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2883" s="35">
+        <v>79</v>
+      </c>
+      <c r="D2883" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="E2883" s="44">
+        <v>44043</v>
+      </c>
+      <c r="F2883" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2884" s="35">
+        <v>2883</v>
+      </c>
+      <c r="B2884" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2884" s="35">
+        <v>77</v>
+      </c>
+      <c r="D2884" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2884" s="44">
+        <v>44043</v>
+      </c>
+      <c r="F2884" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2885" s="35">
+        <v>2884</v>
+      </c>
+      <c r="B2885" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2885" s="35">
+        <v>67</v>
+      </c>
+      <c r="D2885" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2885" s="44">
+        <v>44039</v>
+      </c>
+      <c r="F2885" s="35" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2886" s="35">
+        <v>2885</v>
+      </c>
+      <c r="B2886" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2886" s="35">
+        <v>84</v>
+      </c>
+      <c r="D2886" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2886" s="44">
+        <v>44033</v>
+      </c>
+      <c r="F2886" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2887" s="35">
+        <v>2886</v>
+      </c>
+      <c r="B2887" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2887" s="35">
+        <v>77</v>
+      </c>
+      <c r="D2887" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2887" s="44">
+        <v>44040</v>
+      </c>
+      <c r="F2887" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2888" s="35">
+        <v>2887</v>
+      </c>
+      <c r="B2888" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2888" s="35">
+        <v>81</v>
+      </c>
+      <c r="D2888" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2888" s="44">
+        <v>44041</v>
+      </c>
+      <c r="F2888" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2889" s="35">
+        <v>2888</v>
+      </c>
+      <c r="B2889" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2889" s="35">
+        <v>74</v>
+      </c>
+      <c r="D2889" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2889" s="44">
+        <v>44034</v>
+      </c>
+      <c r="F2889" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2890" s="35">
+        <v>2889</v>
+      </c>
+      <c r="B2890" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2890" s="35">
+        <v>80</v>
+      </c>
+      <c r="D2890" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2890" s="44">
+        <v>43966</v>
+      </c>
+      <c r="F2890" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2891" s="35">
+        <v>2890</v>
+      </c>
+      <c r="B2891" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2891" s="35">
+        <v>86</v>
+      </c>
+      <c r="D2891" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2891" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2891" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2892" s="35">
+        <v>2891</v>
+      </c>
+      <c r="B2892" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2892" s="35">
+        <v>68</v>
+      </c>
+      <c r="D2892" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2892" s="44">
+        <v>44042</v>
+      </c>
+      <c r="F2892" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data-raw/OBITOS_CONF_COVID-19_MG.xlsx
+++ b/data-raw/OBITOS_CONF_COVID-19_MG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjunior/Local/github/dados-mg/ckan/obitos-confirmados-covid-19/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA57888-C426-5248-BD30-FEB0165139C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BBB940-3222-E240-B24A-211FDEBB175B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Óbitos_COVID-19_MG" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8752" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8761" uniqueCount="443">
   <si>
     <t>M</t>
   </si>
@@ -2701,11 +2701,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2892"/>
+  <dimension ref="A1:K2895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2852" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2892" sqref="A2892"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -60564,6 +60562,66 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2893" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2893" s="35">
+        <v>2892</v>
+      </c>
+      <c r="B2893" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2893" s="35">
+        <v>55</v>
+      </c>
+      <c r="D2893" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2893" s="44">
+        <v>44043</v>
+      </c>
+      <c r="F2893" s="35" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2894" s="35">
+        <v>2893</v>
+      </c>
+      <c r="B2894" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2894" s="35">
+        <v>81</v>
+      </c>
+      <c r="D2894" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2894" s="44">
+        <v>44044</v>
+      </c>
+      <c r="F2894" s="35" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2895" s="35">
+        <v>2894</v>
+      </c>
+      <c r="B2895" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2895" s="35">
+        <v>68</v>
+      </c>
+      <c r="D2895" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2895" s="44">
+        <v>44044</v>
+      </c>
+      <c r="F2895" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
